--- a/Analysis/update_data/data/processed/Data_Dictionary.xlsx
+++ b/Analysis/update_data/data/processed/Data_Dictionary.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidmccoy/Documents/PhD/covid/GetzHubbard/Analysis/update_data/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C2BBE6-C5A6-764B-A725-1E33DEFEA869}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB3759F-2A06-9342-AA71-ABAE90CA88AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35280" yWindow="860" windowWidth="32320" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40800" yWindow="1780" windowWidth="32320" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table 1'!$A$1:$J$173</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="565">
   <si>
     <t>Col Num</t>
   </si>
@@ -124,9 +125,6 @@
   </si>
   <si>
     <t>US Census Bureau</t>
-  </si>
-  <si>
-    <t>FIPS</t>
   </si>
   <si>
     <t>integer</t>
@@ -2159,6 +2157,339 @@
   <si>
     <t>National Centers for Environmental Information / National Oceanic and Atmospheric Administration
 (NOAA)</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>no2</t>
+  </si>
+  <si>
+    <t>o3</t>
+  </si>
+  <si>
+    <t>pm10</t>
+  </si>
+  <si>
+    <t>pm25</t>
+  </si>
+  <si>
+    <t>so2</t>
+  </si>
+  <si>
+    <t>LUR models</t>
+  </si>
+  <si>
+    <t>NEVER</t>
+  </si>
+  <si>
+    <t>RARELY</t>
+  </si>
+  <si>
+    <t>SOMETIMES</t>
+  </si>
+  <si>
+    <t>FREQUENTLY</t>
+  </si>
+  <si>
+    <t>ALWAYS</t>
+  </si>
+  <si>
+    <t>mask use</t>
+  </si>
+  <si>
+    <t>Nytimes</t>
+  </si>
+  <si>
+    <t>2,4-D</t>
+  </si>
+  <si>
+    <t>2,4-DB</t>
+  </si>
+  <si>
+    <t>ABAMECTIN</t>
+  </si>
+  <si>
+    <t>ACETOCHLOR</t>
+  </si>
+  <si>
+    <t>ATRAZINE</t>
+  </si>
+  <si>
+    <t>AZOXYSTROBIN</t>
+  </si>
+  <si>
+    <t>BACILLUS FIRMUS</t>
+  </si>
+  <si>
+    <t>BENTAZONE</t>
+  </si>
+  <si>
+    <t>BIFENTHRIN</t>
+  </si>
+  <si>
+    <t>CARBARYL</t>
+  </si>
+  <si>
+    <t>CARFENTRAZONE-ETHYL</t>
+  </si>
+  <si>
+    <t>CHLORANTRANILIPROLE</t>
+  </si>
+  <si>
+    <t>CHLOROTHALONIL</t>
+  </si>
+  <si>
+    <t>CHLORPYRIFOS</t>
+  </si>
+  <si>
+    <t>CLETHODIM</t>
+  </si>
+  <si>
+    <t>CLOPYRALID</t>
+  </si>
+  <si>
+    <t>CLOTHIANIDIN</t>
+  </si>
+  <si>
+    <t>COPPER HYDROXIDE</t>
+  </si>
+  <si>
+    <t>CYFLUTHRIN</t>
+  </si>
+  <si>
+    <t>CYHALOTHRIN-GAMMA</t>
+  </si>
+  <si>
+    <t>CYHALOTHRIN-LAMBDA</t>
+  </si>
+  <si>
+    <t>DICAMBA</t>
+  </si>
+  <si>
+    <t>DIFLUFENZOPYR</t>
+  </si>
+  <si>
+    <t>DIMETHENAMID &amp; DIMETHENAMID-P</t>
+  </si>
+  <si>
+    <t>ESFENVALERATE</t>
+  </si>
+  <si>
+    <t>ETHALFLURALIN</t>
+  </si>
+  <si>
+    <t>FLUDIOXONIL</t>
+  </si>
+  <si>
+    <t>FLUMETSULAM</t>
+  </si>
+  <si>
+    <t>FLUMIOXAZIN</t>
+  </si>
+  <si>
+    <t>FLUXAPYROXAD</t>
+  </si>
+  <si>
+    <t>FOMESAFEN</t>
+  </si>
+  <si>
+    <t>GLUFOSINATE</t>
+  </si>
+  <si>
+    <t>GLYPHOSATE</t>
+  </si>
+  <si>
+    <t>HALOSULFURON</t>
+  </si>
+  <si>
+    <t>IMAZETHAPYR</t>
+  </si>
+  <si>
+    <t>IMIDACLOPRID</t>
+  </si>
+  <si>
+    <t>MANCOZEB</t>
+  </si>
+  <si>
+    <t>MEFENOXAM</t>
+  </si>
+  <si>
+    <t>MESOTRIONE</t>
+  </si>
+  <si>
+    <t>METALAXYL</t>
+  </si>
+  <si>
+    <t>METCONAZOLE</t>
+  </si>
+  <si>
+    <t>METOLACHLOR</t>
+  </si>
+  <si>
+    <t>METOLACHLOR &amp; METOLACHLOR-S</t>
+  </si>
+  <si>
+    <t>METOLACHLOR-S</t>
+  </si>
+  <si>
+    <t>METRIBUZIN</t>
+  </si>
+  <si>
+    <t>NICOSULFURON</t>
+  </si>
+  <si>
+    <t>PARAQUAT</t>
+  </si>
+  <si>
+    <t>PENDIMETHALIN</t>
+  </si>
+  <si>
+    <t>PERMETHRIN</t>
+  </si>
+  <si>
+    <t>PROPICONAZOLE</t>
+  </si>
+  <si>
+    <t>PROTHIOCONAZOLE</t>
+  </si>
+  <si>
+    <t>PYRACLOSTROBIN</t>
+  </si>
+  <si>
+    <t>PYROXASULFONE</t>
+  </si>
+  <si>
+    <t>RIMSULFURON</t>
+  </si>
+  <si>
+    <t>SAFLUFENACIL</t>
+  </si>
+  <si>
+    <t>SETHOXYDIM</t>
+  </si>
+  <si>
+    <t>SIMAZINE</t>
+  </si>
+  <si>
+    <t>SULFENTRAZONE</t>
+  </si>
+  <si>
+    <t>TEBUCONAZOLE</t>
+  </si>
+  <si>
+    <t>TEMBOTRIONE</t>
+  </si>
+  <si>
+    <t>THIAMETHOXAM</t>
+  </si>
+  <si>
+    <t>THIENCARBAZONE-METHYL</t>
+  </si>
+  <si>
+    <t>THIFENSULFURON</t>
+  </si>
+  <si>
+    <t>THIOPHANATE-METHYL</t>
+  </si>
+  <si>
+    <t>TRIBENURON METHYL</t>
+  </si>
+  <si>
+    <t>TRIFLOXYSTROBIN</t>
+  </si>
+  <si>
+    <t>TRIFLURALIN</t>
+  </si>
+  <si>
+    <t>ZETA-CYPERMETHRIN</t>
+  </si>
+  <si>
+    <t>AMINOPYRALID</t>
+  </si>
+  <si>
+    <t>CAPTAN</t>
+  </si>
+  <si>
+    <t>CHLORSULFURON</t>
+  </si>
+  <si>
+    <t>DIFENOCONAZOLE</t>
+  </si>
+  <si>
+    <t>DIMETHENAMID-P</t>
+  </si>
+  <si>
+    <t>DIMETHOATE</t>
+  </si>
+  <si>
+    <t>DIURON</t>
+  </si>
+  <si>
+    <t>FLUROXYPYR</t>
+  </si>
+  <si>
+    <t>FLUTRIAFOL</t>
+  </si>
+  <si>
+    <t>METSULFURON</t>
+  </si>
+  <si>
+    <t>SULFUR</t>
+  </si>
+  <si>
+    <t>TRICLOPYR</t>
+  </si>
+  <si>
+    <t>PICLORAM</t>
+  </si>
+  <si>
+    <t>MALATHION</t>
+  </si>
+  <si>
+    <t>air pollution</t>
+  </si>
+  <si>
+    <t>pesticide pollution</t>
+  </si>
+  <si>
+    <t>USGS</t>
+  </si>
+  <si>
+    <t>avg_tthm_lvls</t>
+  </si>
+  <si>
+    <t>avg_pce_lvls</t>
+  </si>
+  <si>
+    <t>avg_atrazine_lvls</t>
+  </si>
+  <si>
+    <t>avg_tce_lvls</t>
+  </si>
+  <si>
+    <t>avg_dehp_lvls</t>
+  </si>
+  <si>
+    <t>avg_nitrate_lvls</t>
+  </si>
+  <si>
+    <t>avg_arsenic_lvls</t>
+  </si>
+  <si>
+    <t>water_arsenic_violation_freq</t>
+  </si>
+  <si>
+    <t>water pollution</t>
+  </si>
+  <si>
+    <t>Env Health Map</t>
+  </si>
+  <si>
+    <t>fips</t>
+  </si>
+  <si>
+    <t>countyFIPS</t>
   </si>
 </sst>
 </file>
@@ -2810,10 +3141,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J179"/>
+  <dimension ref="A1:J280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B144" zoomScale="89" workbookViewId="0">
-      <selection activeCell="I153" sqref="I153"/>
+    <sheetView tabSelected="1" topLeftCell="B166" zoomScale="89" workbookViewId="0">
+      <selection activeCell="G192" sqref="G192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.19921875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2832,19 +3163,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>2</v>
@@ -2853,10 +3184,10 @@
         <v>3</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>271</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -2864,7 +3195,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -2873,19 +3204,19 @@
         <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -2893,7 +3224,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -2902,27 +3233,27 @@
         <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="I3" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>101</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -2931,22 +3262,22 @@
         <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="I4" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -2954,7 +3285,7 @@
         <v>102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -2963,27 +3294,27 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>103</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -2992,30 +3323,30 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="I6" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -3024,27 +3355,27 @@
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="I7" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
@@ -3053,27 +3384,27 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -3082,27 +3413,27 @@
         <v>6</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
@@ -3111,27 +3442,27 @@
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>108</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>5</v>
@@ -3140,27 +3471,27 @@
         <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>109</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>5</v>
@@ -3169,27 +3500,27 @@
         <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="84" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>110</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>5</v>
@@ -3198,19 +3529,19 @@
         <v>6</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="I13" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="70" x14ac:dyDescent="0.15">
@@ -3218,7 +3549,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>5</v>
@@ -3227,19 +3558,19 @@
         <v>6</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="I14" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="70" x14ac:dyDescent="0.15">
@@ -3247,7 +3578,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>5</v>
@@ -3256,27 +3587,27 @@
         <v>6</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="70" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>5</v>
@@ -3285,27 +3616,27 @@
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="I16" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="70" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>5</v>
@@ -3314,27 +3645,27 @@
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="70" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>5</v>
@@ -3343,27 +3674,27 @@
         <v>6</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="70" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>5</v>
@@ -3372,19 +3703,19 @@
         <v>6</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -3392,7 +3723,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
@@ -3401,27 +3732,27 @@
         <v>6</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>5</v>
@@ -3430,27 +3761,27 @@
         <v>19</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>5</v>
@@ -3459,30 +3790,30 @@
         <v>19</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I22" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>5</v>
@@ -3491,19 +3822,19 @@
         <v>19</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="140" x14ac:dyDescent="0.15">
@@ -3511,7 +3842,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>5</v>
@@ -3520,22 +3851,22 @@
         <v>19</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="I24" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.15">
@@ -3543,7 +3874,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>5</v>
@@ -3552,22 +3883,22 @@
         <v>19</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.15">
@@ -3575,7 +3906,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>
@@ -3584,30 +3915,30 @@
         <v>19</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="J26" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
@@ -3616,19 +3947,19 @@
         <v>19</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="42" x14ac:dyDescent="0.15">
@@ -3636,7 +3967,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>5</v>
@@ -3645,27 +3976,27 @@
         <v>19</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="I28" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>5</v>
@@ -3674,19 +4005,19 @@
         <v>19</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
@@ -3694,7 +4025,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>5</v>
@@ -3703,30 +4034,30 @@
         <v>19</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>5</v>
@@ -3735,27 +4066,27 @@
         <v>19</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>5</v>
@@ -3764,46 +4095,46 @@
         <v>19</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A34" s="7">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>5</v>
@@ -3812,19 +4143,19 @@
         <v>19</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="140" x14ac:dyDescent="0.15">
@@ -3832,7 +4163,7 @@
         <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>5</v>
@@ -3841,22 +4172,22 @@
         <v>19</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="J35" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -3864,7 +4195,7 @@
         <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>5</v>
@@ -3873,30 +4204,30 @@
         <v>19</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7">
         <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>5</v>
@@ -3905,30 +4236,30 @@
         <v>19</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7">
         <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>5</v>
@@ -3937,30 +4268,30 @@
         <v>19</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="I38" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>53</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>5</v>
@@ -3969,27 +4300,27 @@
         <v>19</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G39" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="I39" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>54</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>5</v>
@@ -3998,27 +4329,27 @@
         <v>19</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A41" s="7">
         <v>55</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>5</v>
@@ -4027,27 +4358,27 @@
         <v>19</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7">
         <v>56</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>5</v>
@@ -4056,30 +4387,30 @@
         <v>19</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
         <v>57</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>5</v>
@@ -4088,27 +4419,27 @@
         <v>19</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A44" s="7">
         <v>58</v>
       </c>
       <c r="B44" s="55" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>5</v>
@@ -4117,27 +4448,27 @@
         <v>19</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A45" s="7">
         <v>59</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>5</v>
@@ -4146,27 +4477,27 @@
         <v>19</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A46" s="7">
         <v>60</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>5</v>
@@ -4175,27 +4506,27 @@
         <v>19</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A47" s="7">
         <v>61</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>5</v>
@@ -4204,27 +4535,27 @@
         <v>19</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A48" s="7">
         <v>62</v>
       </c>
       <c r="B48" s="55" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>5</v>
@@ -4233,27 +4564,27 @@
         <v>19</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="7">
         <v>63</v>
       </c>
       <c r="B49" s="55" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>5</v>
@@ -4262,30 +4593,30 @@
         <v>19</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A50" s="7">
         <v>64</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>5</v>
@@ -4294,55 +4625,55 @@
         <v>19</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="B51" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A52" s="7">
         <v>65</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>5</v>
@@ -4351,27 +4682,27 @@
         <v>19</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A53" s="7">
         <v>66</v>
       </c>
       <c r="B53" s="55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>5</v>
@@ -4380,27 +4711,27 @@
         <v>19</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A54" s="7">
         <v>67</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>5</v>
@@ -4409,27 +4740,27 @@
         <v>19</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A55" s="9">
         <v>68</v>
       </c>
       <c r="B55" s="55" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>5</v>
@@ -4438,27 +4769,27 @@
         <v>19</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7">
         <v>69</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>5</v>
@@ -4467,22 +4798,22 @@
         <v>19</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
@@ -4490,7 +4821,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>5</v>
@@ -4499,30 +4830,30 @@
         <v>19</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="9">
         <v>71</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>5</v>
@@ -4531,30 +4862,30 @@
         <v>19</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7">
         <v>72</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>5</v>
@@ -4563,27 +4894,27 @@
         <v>19</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="7">
         <v>73</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>5</v>
@@ -4592,27 +4923,27 @@
         <v>19</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="9">
         <v>74</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>5</v>
@@ -4621,27 +4952,27 @@
         <v>19</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="7">
         <v>75</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>5</v>
@@ -4650,27 +4981,27 @@
         <v>19</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="7">
         <v>76</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>5</v>
@@ -4679,27 +5010,27 @@
         <v>19</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="9">
         <v>77</v>
       </c>
       <c r="B64" s="55" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>5</v>
@@ -4708,27 +5039,27 @@
         <v>19</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="7">
         <v>78</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>5</v>
@@ -4737,27 +5068,27 @@
         <v>19</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="9">
         <v>79</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>5</v>
@@ -4766,27 +5097,27 @@
         <v>19</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="9">
         <v>80</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>5</v>
@@ -4795,27 +5126,27 @@
         <v>19</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="7">
         <v>81</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>5</v>
@@ -4824,27 +5155,27 @@
         <v>19</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="9">
         <v>82</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>5</v>
@@ -4853,27 +5184,27 @@
         <v>19</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="7">
         <v>83</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>5</v>
@@ -4882,27 +5213,27 @@
         <v>19</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="9">
         <v>84</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>5</v>
@@ -4911,27 +5242,27 @@
         <v>19</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="7">
         <v>85</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>5</v>
@@ -4940,27 +5271,27 @@
         <v>19</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="7">
         <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>5</v>
@@ -4969,27 +5300,27 @@
         <v>19</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="9">
         <v>87</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>5</v>
@@ -4998,27 +5329,27 @@
         <v>19</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="7">
         <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>5</v>
@@ -5027,27 +5358,27 @@
         <v>19</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="7">
         <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>5</v>
@@ -5056,27 +5387,27 @@
         <v>19</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="9">
         <v>90</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>5</v>
@@ -5085,27 +5416,27 @@
         <v>19</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="7">
         <v>91</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>5</v>
@@ -5114,27 +5445,27 @@
         <v>19</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="9">
         <v>92</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>5</v>
@@ -5143,27 +5474,27 @@
         <v>19</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="9">
         <v>93</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>5</v>
@@ -5172,27 +5503,27 @@
         <v>19</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="7">
         <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>5</v>
@@ -5201,27 +5532,27 @@
         <v>19</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="9">
         <v>95</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>5</v>
@@ -5230,27 +5561,27 @@
         <v>19</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A83" s="9">
         <v>20</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>5</v>
@@ -5259,27 +5590,27 @@
         <v>19</v>
       </c>
       <c r="E83" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="H83" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A84" s="7">
         <v>33</v>
       </c>
       <c r="B84" s="55" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>5</v>
@@ -5288,27 +5619,27 @@
         <v>19</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A85" s="7">
         <v>34</v>
       </c>
       <c r="B85" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>5</v>
@@ -5317,27 +5648,27 @@
         <v>19</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="7">
         <v>35</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>5</v>
@@ -5346,22 +5677,22 @@
         <v>19</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="42" x14ac:dyDescent="0.15">
@@ -5369,7 +5700,7 @@
         <v>36</v>
       </c>
       <c r="B87" s="55" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>5</v>
@@ -5378,27 +5709,27 @@
         <v>19</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A88" s="7">
         <v>37</v>
       </c>
       <c r="B88" s="55" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>5</v>
@@ -5407,27 +5738,27 @@
         <v>19</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="7">
         <v>50</v>
       </c>
       <c r="B89" s="55" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>5</v>
@@ -5436,30 +5767,30 @@
         <v>19</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A90" s="7">
         <v>44</v>
       </c>
       <c r="B90" s="55" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>5</v>
@@ -5468,27 +5799,27 @@
         <v>19</v>
       </c>
       <c r="E90" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="H90" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="9">
         <v>116</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>5</v>
@@ -5497,30 +5828,30 @@
         <v>6</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F91" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="J91" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="G91" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="J91" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="9">
         <v>117</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>5</v>
@@ -5529,27 +5860,27 @@
         <v>6</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="9">
         <v>118</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>5</v>
@@ -5558,27 +5889,27 @@
         <v>6</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="9">
         <v>119</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>5</v>
@@ -5587,27 +5918,27 @@
         <v>6</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="112" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A95" s="9">
         <v>120</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>5</v>
@@ -5616,22 +5947,22 @@
         <v>6</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G95" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H95" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="H95" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="I95" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
@@ -5658,7 +5989,7 @@
         <v>22</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -5666,10 +5997,10 @@
         <v>7</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>19</v>
@@ -5679,13 +6010,13 @@
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -5712,7 +6043,7 @@
         <v>9</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -5720,7 +6051,7 @@
         <v>2</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>5</v>
@@ -5739,7 +6070,7 @@
         <v>9</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -5766,7 +6097,7 @@
         <v>9</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -5793,7 +6124,7 @@
         <v>9</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -5820,15 +6151,15 @@
         <v>9</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="9">
         <v>17</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>5</v>
@@ -5837,30 +6168,30 @@
         <v>19</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G103" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H103" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H103" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="I103" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A104" s="9">
         <v>21</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>5</v>
@@ -5869,27 +6200,27 @@
         <v>19</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A105" s="9">
         <v>42</v>
       </c>
       <c r="B105" s="55" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>5</v>
@@ -5898,27 +6229,27 @@
         <v>19</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A106" s="9">
         <v>43</v>
       </c>
       <c r="B106" s="55" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>5</v>
@@ -5927,27 +6258,27 @@
         <v>19</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="9">
         <v>127</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>5</v>
@@ -5956,30 +6287,30 @@
         <v>19</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G107" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H107" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="H107" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="I107" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="9">
         <v>128</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>5</v>
@@ -5988,30 +6319,30 @@
         <v>19</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="9">
         <v>129</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>5</v>
@@ -6020,22 +6351,22 @@
         <v>19</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -6043,7 +6374,7 @@
         <v>130</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>5</v>
@@ -6052,27 +6383,27 @@
         <v>19</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="9">
         <v>131</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>5</v>
@@ -6081,27 +6412,27 @@
         <v>19</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="9">
         <v>132</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>5</v>
@@ -6110,27 +6441,27 @@
         <v>19</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="9">
         <v>133</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>5</v>
@@ -6139,27 +6470,27 @@
         <v>19</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A114" s="7">
         <v>38</v>
       </c>
       <c r="B114" s="55" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>5</v>
@@ -6168,27 +6499,27 @@
         <v>19</v>
       </c>
       <c r="E114" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="H114" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A115" s="7">
         <v>39</v>
       </c>
       <c r="B115" s="55" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>5</v>
@@ -6197,27 +6528,27 @@
         <v>19</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A116" s="7">
         <v>40</v>
       </c>
       <c r="B116" s="55" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>5</v>
@@ -6226,27 +6557,27 @@
         <v>19</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A117" s="7">
         <v>41</v>
       </c>
       <c r="B117" s="55" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>5</v>
@@ -6255,27 +6586,27 @@
         <v>19</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A118" s="7">
         <v>51</v>
       </c>
       <c r="B118" s="55" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>5</v>
@@ -6284,19 +6615,19 @@
         <v>19</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" spans="1:10" s="21" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.15">
@@ -6304,7 +6635,7 @@
         <v>97</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C119" s="19" t="s">
         <v>5</v>
@@ -6313,131 +6644,131 @@
         <v>19</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G119" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="H119" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="H119" s="20" t="s">
-        <v>321</v>
-      </c>
       <c r="I119" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J119" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="120" spans="1:10" s="16" customFormat="1" ht="91" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="13"/>
       <c r="B120" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C120" s="14"/>
       <c r="D120" s="14"/>
       <c r="E120" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H120" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I120" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J120" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="121" spans="1:10" s="16" customFormat="1" ht="91" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="13"/>
       <c r="B121" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C121" s="14"/>
       <c r="D121" s="14"/>
       <c r="E121" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G121" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I121" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="122" spans="1:10" s="16" customFormat="1" ht="91" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="13"/>
       <c r="B122" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
       <c r="E122" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G122" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I122" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J122" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="123" spans="1:10" s="16" customFormat="1" ht="91" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="13"/>
       <c r="B123" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C123" s="14"/>
       <c r="D123" s="14"/>
       <c r="E123" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G123" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H123" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I123" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J123" s="16" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" s="35" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" s="35" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="32">
         <v>98</v>
       </c>
       <c r="B124" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C124" s="33" t="s">
         <v>5</v>
@@ -6446,122 +6777,122 @@
         <v>19</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F124" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G124" s="34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H124" s="34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I124" s="35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="125" spans="1:10" s="30" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="27"/>
       <c r="B125" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
       <c r="E125" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F125" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G125" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H125" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I125" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J125" s="30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="126" spans="1:10" s="30" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="27"/>
       <c r="B126" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
       <c r="E126" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F126" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G126" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H126" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I126" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="127" spans="1:10" s="30" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="27"/>
       <c r="B127" s="31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
       <c r="E127" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G127" s="31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H127" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I127" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="128" spans="1:10" s="30" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="27"/>
       <c r="B128" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
       <c r="E128" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F128" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G128" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H128" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I128" s="30" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" s="44" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="44" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" s="41">
         <v>99</v>
       </c>
       <c r="B129" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C129" s="42" t="s">
         <v>5</v>
@@ -6570,74 +6901,74 @@
         <v>19</v>
       </c>
       <c r="E129" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F129" s="42"/>
       <c r="G129" s="43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H129" s="43" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I129" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="130" spans="1:10" s="39" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="36"/>
       <c r="B130" s="40" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C130" s="37"/>
       <c r="D130" s="37"/>
       <c r="E130" s="37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F130" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G130" s="40" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H130" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I130" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J130" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="131" spans="1:10" s="39" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="36"/>
       <c r="B131" s="40" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C131" s="37"/>
       <c r="D131" s="37"/>
       <c r="E131" s="37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F131" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G131" s="40" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H131" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I131" s="39" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" s="48" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" s="48" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" s="45">
         <v>100</v>
       </c>
       <c r="B132" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C132" s="46" t="s">
         <v>5</v>
@@ -6646,152 +6977,152 @@
         <v>19</v>
       </c>
       <c r="E132" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F132" s="46"/>
       <c r="G132" s="47" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H132" s="47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I132" s="48" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="133" spans="1:10" s="25" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A133" s="22"/>
       <c r="B133" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C133" s="23"/>
       <c r="D133" s="23"/>
       <c r="E133" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F133" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G133" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H133" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I133" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J133" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="134" spans="1:10" s="25" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="22"/>
       <c r="B134" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C134" s="23"/>
       <c r="D134" s="23"/>
       <c r="E134" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F134" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G134" s="26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H134" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I134" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="135" spans="1:10" s="25" customFormat="1" ht="152" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="22"/>
       <c r="B135" s="26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C135" s="23"/>
       <c r="D135" s="23"/>
       <c r="E135" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F135" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G135" s="26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H135" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I135" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J135" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="136" spans="1:10" s="25" customFormat="1" ht="152" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="22"/>
       <c r="B136" s="26" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C136" s="23"/>
       <c r="D136" s="23"/>
       <c r="E136" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F136" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G136" s="26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H136" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I136" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J136" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="137" spans="1:10" s="25" customFormat="1" ht="152" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="22"/>
       <c r="B137" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C137" s="23"/>
       <c r="D137" s="23"/>
       <c r="E137" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F137" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G137" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H137" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I137" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J137" s="25" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="98" x14ac:dyDescent="0.15">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A138" s="9">
         <v>112</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>5</v>
@@ -6800,27 +7131,27 @@
         <v>6</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F138" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G138" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H138" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H138" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="I138" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="9">
         <v>113</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>5</v>
@@ -6829,30 +7160,30 @@
         <v>6</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F139" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="9">
         <v>114</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>5</v>
@@ -6861,27 +7192,27 @@
         <v>6</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F140" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="9">
         <v>115</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>5</v>
@@ -6890,27 +7221,27 @@
         <v>6</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F141" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="112" hidden="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="9">
         <v>121</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>5</v>
@@ -6919,30 +7250,30 @@
         <v>6</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F142" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="98" x14ac:dyDescent="0.15">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A143" s="9">
         <v>122</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>5</v>
@@ -6951,30 +7282,30 @@
         <v>6</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F143" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G143" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H143" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="H143" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="I143" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="J143" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="J143" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="98" x14ac:dyDescent="0.15">
+    </row>
+    <row r="144" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A144" s="9">
         <v>123</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>5</v>
@@ -6983,27 +7314,27 @@
         <v>6</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F144" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" s="9">
         <v>124</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>5</v>
@@ -7012,30 +7343,30 @@
         <v>6</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F145" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A146" s="7">
         <v>45</v>
       </c>
       <c r="B146" s="55" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>5</v>
@@ -7044,19 +7375,19 @@
         <v>19</v>
       </c>
       <c r="E146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G146" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F146" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="H146" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
@@ -7064,7 +7395,7 @@
         <v>46</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>5</v>
@@ -7073,27 +7404,27 @@
         <v>19</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="84" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A148" s="9">
         <v>111</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>5</v>
@@ -7102,27 +7433,27 @@
         <v>6</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G148" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H148" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H148" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="I148" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A149" s="9">
         <v>125</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>5</v>
@@ -7131,27 +7462,27 @@
         <v>19</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G149" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H149" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H149" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="I149" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" s="9">
         <v>126</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>5</v>
@@ -7160,22 +7491,22 @@
         <v>19</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.15">
@@ -7183,7 +7514,7 @@
         <v>96</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>5</v>
@@ -7196,672 +7527,2386 @@
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
       <c r="I151" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="152" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A152" s="49"/>
       <c r="B152" s="49" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C152" s="49"/>
       <c r="D152" s="49"/>
       <c r="E152" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F152" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G152" s="50" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H152" s="54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I152" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="153" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A153" s="49"/>
       <c r="B153" s="49" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C153" s="49"/>
       <c r="D153" s="49"/>
       <c r="E153" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F153" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G153" s="50" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H153" s="54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I153" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="154" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A154" s="49"/>
       <c r="B154" s="49" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C154" s="49"/>
       <c r="D154" s="49"/>
       <c r="E154" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F154" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G154" s="50" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H154" s="54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I154" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="155" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A155" s="49"/>
       <c r="B155" s="49" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C155" s="49"/>
       <c r="D155" s="49"/>
       <c r="E155" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F155" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G155" s="50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H155" s="54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I155" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="156" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A156" s="49"/>
       <c r="B156" s="49" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C156" s="49"/>
       <c r="D156" s="49"/>
       <c r="E156" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F156" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G156" s="50" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H156" s="54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I156" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="157" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A157" s="49"/>
       <c r="B157" s="49" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C157" s="49"/>
       <c r="D157" s="49"/>
       <c r="E157" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F157" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G157" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H157" s="54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I157" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="158" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A158" s="49"/>
       <c r="B158" s="49" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C158" s="49"/>
       <c r="D158" s="49"/>
       <c r="E158" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F158" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G158" s="51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H158" s="54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I158" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="159" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A159" s="49"/>
       <c r="B159" s="52" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C159" s="49"/>
       <c r="D159" s="49"/>
       <c r="E159" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F159" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G159" s="51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H159" s="54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I159" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="160" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A160" s="49"/>
       <c r="B160" s="49" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C160" s="49"/>
       <c r="D160" s="49"/>
       <c r="E160" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F160" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G160" s="51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H160" s="54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I160" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A161" s="49"/>
       <c r="B161" s="52" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C161" s="49"/>
       <c r="D161" s="49"/>
       <c r="E161" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F161" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G161" s="51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H161" s="54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I161" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A162" s="49"/>
       <c r="B162" s="49" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C162" s="49"/>
       <c r="D162" s="49"/>
       <c r="E162" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F162" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G162" s="51" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H162" s="54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I162" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="163" spans="1:9" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A163" s="49"/>
       <c r="B163" s="49" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C163" s="49"/>
       <c r="D163" s="49"/>
       <c r="E163" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F163" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G163" s="51" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H163" s="54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I163" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A164" s="49"/>
       <c r="B164" s="49" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C164" s="49"/>
       <c r="D164" s="49"/>
       <c r="E164" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F164" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G164" s="51" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H164" s="54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I164" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="165" spans="1:9" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A165" s="49"/>
       <c r="B165" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C165" s="49"/>
       <c r="D165" s="49"/>
       <c r="E165" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F165" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G165" s="51" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H165" s="54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I165" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A166" s="49"/>
       <c r="B166" s="49" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C166" s="49"/>
       <c r="D166" s="49"/>
       <c r="E166" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F166" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G166" s="51" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H166" s="54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I166" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="167" spans="1:9" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A167" s="49"/>
       <c r="B167" s="49" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C167" s="49"/>
       <c r="D167" s="49"/>
       <c r="E167" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F167" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G167" s="51" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H167" s="54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I167" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="168" spans="1:9" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A168" s="49"/>
       <c r="B168" s="49" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C168" s="49"/>
       <c r="D168" s="49"/>
       <c r="E168" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="F168" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="G168" s="51" t="s">
+        <v>366</v>
+      </c>
+      <c r="H168" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="I168" s="52" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" s="52" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B169" s="52" t="s">
+        <v>374</v>
+      </c>
+      <c r="E169" s="52" t="s">
         <v>376</v>
       </c>
-      <c r="F168" s="49" t="s">
-        <v>376</v>
-      </c>
-      <c r="G168" s="51" t="s">
-        <v>367</v>
-      </c>
-      <c r="H168" s="54" t="s">
-        <v>378</v>
-      </c>
-      <c r="I168" s="52" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" s="52" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="B169" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="E169" s="52" t="s">
-        <v>377</v>
-      </c>
       <c r="F169" s="52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G169" s="53" t="s">
+        <v>372</v>
+      </c>
+      <c r="H169" s="52" t="s">
         <v>373</v>
       </c>
-      <c r="H169" s="52" t="s">
-        <v>374</v>
-      </c>
       <c r="I169" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A170" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B170" s="55" t="s">
+        <v>378</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G170" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C170" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="D170" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G170" s="6" t="s">
+      <c r="H170" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="H170" s="6" t="s">
-        <v>381</v>
-      </c>
       <c r="I170" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A171" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B171" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G171" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="C171" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="E171" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F171" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="G171" s="6" t="s">
-        <v>439</v>
-      </c>
       <c r="H171" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A172" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B172" s="55" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A173" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B173" s="55" t="s">
+        <v>440</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G173" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="C173" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F173" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="G173" s="6" t="s">
+      <c r="H173" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="H173" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="I173" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B174" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B175" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B176" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="177" spans="2:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B177" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="178" spans="2:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B178" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I178" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="179" spans="2:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B179" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G179" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C179" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="E179" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F179" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G179" s="6" t="s">
-        <v>452</v>
-      </c>
       <c r="I179" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B180" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="G180" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="I180" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B181" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="G181" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="I181" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B182" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="G182" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="I182" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B183" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="I183" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B184" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="G184" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="I184" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B185" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="G185" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="I185" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B186" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="G186" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="I186" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B187" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="G187" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="I187" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B188" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="G188" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="I188" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B189" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="G189" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="I189" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B190" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="G190" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="I190" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B191" t="s">
+        <v>472</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G191" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I191" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B192" t="s">
+        <v>477</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I192" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B193" t="s">
+        <v>482</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G193" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I193" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B194" t="s">
+        <v>487</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G194" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I194" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B195" t="s">
+        <v>492</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G195" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I195" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B196" t="s">
+        <v>497</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G196" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I196" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B197" t="s">
+        <v>502</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G197" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I197" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B198" t="s">
+        <v>507</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G198" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I198" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B199" t="s">
+        <v>512</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G199" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I199" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B200" t="s">
+        <v>517</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G200" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I200" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B201" t="s">
+        <v>522</v>
+      </c>
+      <c r="E201" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G201" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I201" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B202" t="s">
+        <v>527</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G202" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I202" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B203" t="s">
+        <v>532</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G203" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I203" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="204" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B204" t="s">
+        <v>537</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G204" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I204" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B205" t="s">
+        <v>542</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G205" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I205" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B206" t="s">
+        <v>547</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G206" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I206" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B207" t="s">
+        <v>468</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G207" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I207" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B208" t="s">
+        <v>473</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G208" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I208" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B209" t="s">
+        <v>478</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G209" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I209" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B210" t="s">
+        <v>483</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G210" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I210" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B211" t="s">
+        <v>488</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G211" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I211" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B212" t="s">
+        <v>493</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G212" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I212" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B213" t="s">
+        <v>498</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F213" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G213" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I213" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B214" t="s">
+        <v>503</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G214" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I214" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B215" t="s">
+        <v>508</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F215" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G215" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I215" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B216" t="s">
+        <v>513</v>
+      </c>
+      <c r="E216" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F216" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G216" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I216" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B217" t="s">
+        <v>518</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F217" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G217" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I217" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B218" t="s">
+        <v>523</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G218" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I218" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B219" t="s">
+        <v>528</v>
+      </c>
+      <c r="E219" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F219" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G219" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I219" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B220" t="s">
+        <v>533</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G220" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I220" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B221" t="s">
+        <v>538</v>
+      </c>
+      <c r="E221" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F221" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G221" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I221" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B222" t="s">
+        <v>543</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F222" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G222" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I222" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B223" t="s">
+        <v>548</v>
+      </c>
+      <c r="E223" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F223" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G223" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I223" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B224" t="s">
+        <v>469</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F224" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G224" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I224" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B225" t="s">
+        <v>474</v>
+      </c>
+      <c r="E225" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F225" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G225" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I225" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B226" t="s">
+        <v>479</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F226" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G226" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I226" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B227" t="s">
+        <v>484</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F227" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G227" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I227" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B228" t="s">
+        <v>489</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F228" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G228" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I228" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B229" t="s">
+        <v>494</v>
+      </c>
+      <c r="E229" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F229" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G229" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I229" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B230" t="s">
+        <v>499</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F230" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G230" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I230" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B231" t="s">
+        <v>504</v>
+      </c>
+      <c r="E231" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F231" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G231" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I231" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B232" t="s">
+        <v>509</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F232" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G232" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I232" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B233" t="s">
+        <v>514</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F233" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G233" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I233" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B234" t="s">
+        <v>519</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F234" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G234" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I234" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B235" t="s">
+        <v>524</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G235" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I235" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B236" t="s">
+        <v>529</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F236" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G236" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I236" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B237" t="s">
+        <v>534</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F237" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G237" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I237" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="238" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B238" t="s">
+        <v>539</v>
+      </c>
+      <c r="E238" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F238" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G238" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I238" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B239" t="s">
+        <v>544</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F239" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G239" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I239" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="240" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B240" t="s">
+        <v>549</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F240" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G240" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I240" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B241" t="s">
+        <v>470</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F241" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G241" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I241" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="242" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B242" t="s">
+        <v>475</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F242" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G242" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I242" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="243" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B243" t="s">
+        <v>480</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G243" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I243" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="244" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B244" t="s">
+        <v>485</v>
+      </c>
+      <c r="E244" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F244" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G244" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I244" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="245" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B245" t="s">
+        <v>490</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F245" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G245" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I245" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B246" t="s">
+        <v>495</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F246" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G246" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I246" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="247" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B247" t="s">
+        <v>500</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F247" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G247" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I247" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="248" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B248" t="s">
+        <v>505</v>
+      </c>
+      <c r="E248" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G248" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I248" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="249" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B249" t="s">
+        <v>510</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G249" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I249" s="6" t="s">
         <v>273</v>
+      </c>
+    </row>
+    <row r="250" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B250" t="s">
+        <v>515</v>
+      </c>
+      <c r="E250" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F250" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G250" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I250" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="251" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B251" t="s">
+        <v>520</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F251" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G251" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I251" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="252" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B252" t="s">
+        <v>525</v>
+      </c>
+      <c r="E252" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F252" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G252" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I252" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="253" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B253" t="s">
+        <v>530</v>
+      </c>
+      <c r="E253" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F253" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G253" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I253" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="254" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B254" t="s">
+        <v>535</v>
+      </c>
+      <c r="E254" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F254" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G254" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I254" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="255" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B255" t="s">
+        <v>540</v>
+      </c>
+      <c r="E255" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F255" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G255" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I255" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="256" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B256" t="s">
+        <v>545</v>
+      </c>
+      <c r="E256" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F256" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G256" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I256" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="257" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B257" t="s">
+        <v>471</v>
+      </c>
+      <c r="E257" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F257" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G257" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I257" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="258" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B258" t="s">
+        <v>476</v>
+      </c>
+      <c r="E258" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F258" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G258" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I258" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="259" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B259" t="s">
+        <v>481</v>
+      </c>
+      <c r="E259" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F259" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G259" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I259" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="260" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B260" t="s">
+        <v>486</v>
+      </c>
+      <c r="E260" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F260" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G260" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I260" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="261" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B261" t="s">
+        <v>491</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F261" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G261" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I261" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="262" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B262" t="s">
+        <v>496</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F262" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G262" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I262" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="263" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B263" t="s">
+        <v>501</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F263" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G263" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I263" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="264" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B264" t="s">
+        <v>506</v>
+      </c>
+      <c r="E264" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F264" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G264" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I264" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="265" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B265" t="s">
+        <v>511</v>
+      </c>
+      <c r="E265" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F265" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G265" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I265" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="266" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B266" t="s">
+        <v>516</v>
+      </c>
+      <c r="E266" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F266" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G266" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I266" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="267" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B267" t="s">
+        <v>521</v>
+      </c>
+      <c r="E267" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F267" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G267" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I267" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="268" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B268" t="s">
+        <v>526</v>
+      </c>
+      <c r="E268" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F268" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G268" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I268" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="269" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B269" t="s">
+        <v>531</v>
+      </c>
+      <c r="E269" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F269" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G269" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I269" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="270" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B270" t="s">
+        <v>536</v>
+      </c>
+      <c r="E270" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F270" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G270" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I270" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="271" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B271" t="s">
+        <v>541</v>
+      </c>
+      <c r="E271" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F271" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G271" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I271" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="272" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B272" t="s">
+        <v>546</v>
+      </c>
+      <c r="E272" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F272" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G272" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I272" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="273" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B273" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="E273" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="F273" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="G273" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="I273" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B274" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="E274" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="F274" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="G274" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="I274" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="275" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B275" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="E275" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="F275" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="G275" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="I275" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="276" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B276" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="E276" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="F276" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="G276" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="I276" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="277" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B277" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="E277" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="F277" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="G277" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="I277" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="278" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B278" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="E278" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="F278" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="G278" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="I278" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="279" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B279" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E279" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="F279" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="G279" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="I279" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="280" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B280" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="E280" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="F280" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="G280" s="6" t="s">
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -7878,4 +9923,638 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D60FF0-94E4-DA48-B22E-AEAE81C6190B}">
+  <dimension ref="A1:E83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C4" t="s">
+        <v>484</v>
+      </c>
+      <c r="D4" t="s">
+        <v>485</v>
+      </c>
+      <c r="E4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C5" t="s">
+        <v>489</v>
+      </c>
+      <c r="D5" t="s">
+        <v>490</v>
+      </c>
+      <c r="E5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>492</v>
+      </c>
+      <c r="B6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D6" t="s">
+        <v>495</v>
+      </c>
+      <c r="E6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>497</v>
+      </c>
+      <c r="B7" t="s">
+        <v>498</v>
+      </c>
+      <c r="C7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D7" t="s">
+        <v>500</v>
+      </c>
+      <c r="E7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>502</v>
+      </c>
+      <c r="B8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C8" t="s">
+        <v>504</v>
+      </c>
+      <c r="D8" t="s">
+        <v>505</v>
+      </c>
+      <c r="E8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D9" t="s">
+        <v>510</v>
+      </c>
+      <c r="E9" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>512</v>
+      </c>
+      <c r="B10" t="s">
+        <v>513</v>
+      </c>
+      <c r="C10" t="s">
+        <v>514</v>
+      </c>
+      <c r="D10" t="s">
+        <v>515</v>
+      </c>
+      <c r="E10" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>517</v>
+      </c>
+      <c r="B11" t="s">
+        <v>518</v>
+      </c>
+      <c r="C11" t="s">
+        <v>519</v>
+      </c>
+      <c r="D11" t="s">
+        <v>520</v>
+      </c>
+      <c r="E11" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>522</v>
+      </c>
+      <c r="B12" t="s">
+        <v>523</v>
+      </c>
+      <c r="C12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D12" t="s">
+        <v>525</v>
+      </c>
+      <c r="E12" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>527</v>
+      </c>
+      <c r="B13" t="s">
+        <v>528</v>
+      </c>
+      <c r="C13" t="s">
+        <v>529</v>
+      </c>
+      <c r="D13" t="s">
+        <v>530</v>
+      </c>
+      <c r="E13" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>532</v>
+      </c>
+      <c r="B14" t="s">
+        <v>533</v>
+      </c>
+      <c r="C14" t="s">
+        <v>534</v>
+      </c>
+      <c r="D14" t="s">
+        <v>535</v>
+      </c>
+      <c r="E14" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>537</v>
+      </c>
+      <c r="B15" t="s">
+        <v>538</v>
+      </c>
+      <c r="C15" t="s">
+        <v>539</v>
+      </c>
+      <c r="D15" t="s">
+        <v>540</v>
+      </c>
+      <c r="E15" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>542</v>
+      </c>
+      <c r="B16" t="s">
+        <v>543</v>
+      </c>
+      <c r="C16" t="s">
+        <v>544</v>
+      </c>
+      <c r="D16" t="s">
+        <v>545</v>
+      </c>
+      <c r="E16" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>547</v>
+      </c>
+      <c r="B17" t="s">
+        <v>548</v>
+      </c>
+      <c r="C17" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>546</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analysis/update_data/data/processed/Data_Dictionary.xlsx
+++ b/Analysis/update_data/data/processed/Data_Dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidmccoy/Documents/PhD/covid/GetzHubbard/Analysis/update_data/data/processed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidmccoy/Documents/PhD/covid/Covid_SL_intxns/Covid_SL_intxns/Analysis/update_data/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0450D84-D0F4-F445-B0F2-7FAD32FB6E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDDE62F-F824-644B-AED8-A381DBC76DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34720" yWindow="2100" windowWidth="28800" windowHeight="13580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31480" yWindow="3600" windowWidth="28800" windowHeight="13580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="720">
   <si>
     <t>Col Num</t>
   </si>
@@ -2775,6 +2775,186 @@
   </si>
   <si>
     <t>decile</t>
+  </si>
+  <si>
+    <t>1,2,3-Trichloropropane</t>
+  </si>
+  <si>
+    <t>Chromium (hexavalent)</t>
+  </si>
+  <si>
+    <t>Perfluorinated chemicals</t>
+  </si>
+  <si>
+    <t>Total trihalomethanes (TTHMs)</t>
+  </si>
+  <si>
+    <t>1,4-Dioxane</t>
+  </si>
+  <si>
+    <t>Bromodichloromethane</t>
+  </si>
+  <si>
+    <t>Chloroform</t>
+  </si>
+  <si>
+    <t>Dichloroacetic acid</t>
+  </si>
+  <si>
+    <t>Trichloroacetic acid</t>
+  </si>
+  <si>
+    <t>Radiological contaminants</t>
+  </si>
+  <si>
+    <t>Manganese</t>
+  </si>
+  <si>
+    <t>Dibromochloromethane</t>
+  </si>
+  <si>
+    <t>Tetrachloroethylene (perchloroethylene)</t>
+  </si>
+  <si>
+    <t>Haloacetic acids (HAA5)</t>
+  </si>
+  <si>
+    <t>Hormones</t>
+  </si>
+  <si>
+    <t>Arsenic</t>
+  </si>
+  <si>
+    <t>Trichloroethylene</t>
+  </si>
+  <si>
+    <t>Atrazine</t>
+  </si>
+  <si>
+    <t>Chlorate</t>
+  </si>
+  <si>
+    <t>Thallium</t>
+  </si>
+  <si>
+    <t>Chlorite</t>
+  </si>
+  <si>
+    <t>Bromate</t>
+  </si>
+  <si>
+    <t>Bromoform</t>
+  </si>
+  <si>
+    <t>Nitrate</t>
+  </si>
+  <si>
+    <t>Benzo[a]pyrene</t>
+  </si>
+  <si>
+    <t>Nitrate and nitrite</t>
+  </si>
+  <si>
+    <t>Cadmium</t>
+  </si>
+  <si>
+    <t>Beryllium</t>
+  </si>
+  <si>
+    <t>Antimony</t>
+  </si>
+  <si>
+    <t>Strontium</t>
+  </si>
+  <si>
+    <t>Benzene</t>
+  </si>
+  <si>
+    <t>Mercury (inorganic)</t>
+  </si>
+  <si>
+    <t>Perchlorate</t>
+  </si>
+  <si>
+    <t>Carbon tetrachloride</t>
+  </si>
+  <si>
+    <t>Vinyl chloride</t>
+  </si>
+  <si>
+    <t>1,2-Dichloroethane</t>
+  </si>
+  <si>
+    <t>Barium</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Chloromethane</t>
+  </si>
+  <si>
+    <t>Heptachlor epoxide</t>
+  </si>
+  <si>
+    <t>Fluoride</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>1,1,2-Trichloroethane</t>
+  </si>
+  <si>
+    <t>Chlordane</t>
+  </si>
+  <si>
+    <t>Lindane</t>
+  </si>
+  <si>
+    <t>Heptachlor</t>
+  </si>
+  <si>
+    <t>1,2-Dichloropropane</t>
+  </si>
+  <si>
+    <t>Styrene</t>
+  </si>
+  <si>
+    <t>1,2-Dibromo-3-chloropropane (DBCP)</t>
+  </si>
+  <si>
+    <t>Ethylene dibromide</t>
+  </si>
+  <si>
+    <t>Molybdenum</t>
+  </si>
+  <si>
+    <t>Polychlorinated biphenyls (PCBs)</t>
+  </si>
+  <si>
+    <t>1,3-Butadiene</t>
+  </si>
+  <si>
+    <t>Di(2-ethylhexyl) phthalate</t>
+  </si>
+  <si>
+    <t>Carbofuran</t>
+  </si>
+  <si>
+    <t>p-Dichlorobenzene</t>
+  </si>
+  <si>
+    <t>Glyphosate</t>
+  </si>
+  <si>
+    <t>Vanadium</t>
+  </si>
+  <si>
+    <t>MTBE</t>
+  </si>
+  <si>
+    <t>N-Nitrosodimethylamine (NDMA)</t>
   </si>
 </sst>
 </file>
@@ -3435,10 +3615,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J359"/>
+  <dimension ref="A1:J419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" zoomScale="89" workbookViewId="0">
-      <selection activeCell="B349" sqref="B349"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="89" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.19921875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8786,7 +8966,7 @@
         <v>461</v>
       </c>
       <c r="I193" s="6" t="s">
-        <v>268</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194" spans="2:9" ht="14" x14ac:dyDescent="0.15">
@@ -8803,7 +8983,7 @@
         <v>461</v>
       </c>
       <c r="I194" s="6" t="s">
-        <v>268</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" spans="2:9" ht="14" x14ac:dyDescent="0.15">
@@ -8820,7 +9000,7 @@
         <v>461</v>
       </c>
       <c r="I195" s="6" t="s">
-        <v>268</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196" spans="2:9" ht="14" x14ac:dyDescent="0.15">
@@ -8837,7 +9017,7 @@
         <v>461</v>
       </c>
       <c r="I196" s="6" t="s">
-        <v>268</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" spans="2:9" ht="14" x14ac:dyDescent="0.15">
@@ -8854,7 +9034,7 @@
         <v>461</v>
       </c>
       <c r="I197" s="6" t="s">
-        <v>268</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" spans="2:9" ht="14" x14ac:dyDescent="0.15">
@@ -11392,6 +11572,846 @@
         <v>264</v>
       </c>
       <c r="I359" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="360" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B360" s="55" t="s">
+        <v>660</v>
+      </c>
+      <c r="E360" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F360" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I360" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="361" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B361" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="E361" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F361" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I361" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="362" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B362" s="55" t="s">
+        <v>662</v>
+      </c>
+      <c r="E362" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F362" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I362" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="363" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B363" s="55" t="s">
+        <v>663</v>
+      </c>
+      <c r="E363" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F363" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I363" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="364" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B364" s="55" t="s">
+        <v>664</v>
+      </c>
+      <c r="E364" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F364" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I364" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="365" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B365" s="55" t="s">
+        <v>665</v>
+      </c>
+      <c r="E365" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F365" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I365" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="366" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B366" s="55" t="s">
+        <v>666</v>
+      </c>
+      <c r="E366" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F366" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I366" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="367" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B367" s="55" t="s">
+        <v>667</v>
+      </c>
+      <c r="E367" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F367" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I367" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="368" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B368" s="55" t="s">
+        <v>668</v>
+      </c>
+      <c r="E368" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F368" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I368" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="369" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B369" s="55" t="s">
+        <v>669</v>
+      </c>
+      <c r="E369" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F369" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I369" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="370" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B370" s="55" t="s">
+        <v>670</v>
+      </c>
+      <c r="E370" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F370" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I370" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="371" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B371" s="55" t="s">
+        <v>671</v>
+      </c>
+      <c r="E371" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F371" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I371" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="372" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B372" s="55" t="s">
+        <v>672</v>
+      </c>
+      <c r="E372" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F372" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I372" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="373" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B373" s="55" t="s">
+        <v>673</v>
+      </c>
+      <c r="E373" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F373" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I373" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="374" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B374" s="55" t="s">
+        <v>674</v>
+      </c>
+      <c r="E374" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F374" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I374" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="375" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B375" s="55" t="s">
+        <v>675</v>
+      </c>
+      <c r="E375" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F375" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I375" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="376" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B376" s="55" t="s">
+        <v>676</v>
+      </c>
+      <c r="E376" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F376" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I376" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="377" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B377" s="55" t="s">
+        <v>677</v>
+      </c>
+      <c r="E377" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F377" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I377" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="378" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B378" s="55" t="s">
+        <v>678</v>
+      </c>
+      <c r="E378" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F378" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I378" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="379" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B379" s="55" t="s">
+        <v>679</v>
+      </c>
+      <c r="E379" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F379" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I379" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="380" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B380" s="55" t="s">
+        <v>680</v>
+      </c>
+      <c r="E380" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F380" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I380" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="381" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B381" s="55" t="s">
+        <v>681</v>
+      </c>
+      <c r="E381" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F381" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I381" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="382" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B382" s="55" t="s">
+        <v>682</v>
+      </c>
+      <c r="E382" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F382" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I382" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="383" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B383" s="55" t="s">
+        <v>683</v>
+      </c>
+      <c r="E383" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F383" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I383" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="384" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B384" s="55" t="s">
+        <v>684</v>
+      </c>
+      <c r="E384" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F384" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I384" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="385" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B385" s="55" t="s">
+        <v>685</v>
+      </c>
+      <c r="E385" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F385" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I385" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="386" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B386" s="55" t="s">
+        <v>686</v>
+      </c>
+      <c r="E386" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F386" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I386" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="387" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B387" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="E387" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F387" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I387" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="388" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B388" s="55" t="s">
+        <v>688</v>
+      </c>
+      <c r="E388" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F388" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I388" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="389" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B389" s="55" t="s">
+        <v>689</v>
+      </c>
+      <c r="E389" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F389" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I389" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="390" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B390" s="55" t="s">
+        <v>690</v>
+      </c>
+      <c r="E390" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F390" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I390" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="391" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B391" s="55" t="s">
+        <v>691</v>
+      </c>
+      <c r="E391" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F391" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I391" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="392" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B392" s="55" t="s">
+        <v>692</v>
+      </c>
+      <c r="E392" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F392" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I392" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="393" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B393" s="55" t="s">
+        <v>693</v>
+      </c>
+      <c r="E393" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F393" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I393" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="394" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B394" s="55" t="s">
+        <v>694</v>
+      </c>
+      <c r="E394" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F394" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I394" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="395" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B395" s="55" t="s">
+        <v>695</v>
+      </c>
+      <c r="E395" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F395" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I395" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="396" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B396" s="55" t="s">
+        <v>696</v>
+      </c>
+      <c r="E396" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F396" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I396" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="397" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B397" s="55" t="s">
+        <v>697</v>
+      </c>
+      <c r="E397" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F397" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I397" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="398" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B398" s="55" t="s">
+        <v>698</v>
+      </c>
+      <c r="E398" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F398" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I398" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="399" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B399" s="55" t="s">
+        <v>699</v>
+      </c>
+      <c r="E399" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F399" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I399" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="400" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B400" s="55" t="s">
+        <v>700</v>
+      </c>
+      <c r="E400" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F400" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I400" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="401" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B401" s="55" t="s">
+        <v>701</v>
+      </c>
+      <c r="E401" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F401" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I401" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="402" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B402" s="55" t="s">
+        <v>702</v>
+      </c>
+      <c r="E402" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F402" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I402" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="403" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B403" s="55" t="s">
+        <v>703</v>
+      </c>
+      <c r="E403" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F403" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I403" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="404" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B404" s="55" t="s">
+        <v>704</v>
+      </c>
+      <c r="E404" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F404" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I404" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="405" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B405" s="55" t="s">
+        <v>705</v>
+      </c>
+      <c r="E405" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F405" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I405" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="406" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B406" s="55" t="s">
+        <v>706</v>
+      </c>
+      <c r="E406" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F406" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I406" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="407" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B407" s="55" t="s">
+        <v>707</v>
+      </c>
+      <c r="E407" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F407" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I407" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="408" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B408" s="55" t="s">
+        <v>708</v>
+      </c>
+      <c r="E408" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F408" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I408" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="409" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B409" s="55" t="s">
+        <v>709</v>
+      </c>
+      <c r="E409" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F409" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I409" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="410" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B410" s="55" t="s">
+        <v>710</v>
+      </c>
+      <c r="E410" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F410" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I410" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="411" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B411" s="55" t="s">
+        <v>711</v>
+      </c>
+      <c r="E411" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F411" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I411" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="412" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B412" s="55" t="s">
+        <v>712</v>
+      </c>
+      <c r="E412" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F412" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I412" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="413" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B413" s="55" t="s">
+        <v>713</v>
+      </c>
+      <c r="E413" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F413" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I413" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="414" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B414" s="55" t="s">
+        <v>714</v>
+      </c>
+      <c r="E414" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F414" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I414" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="415" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B415" s="55" t="s">
+        <v>715</v>
+      </c>
+      <c r="E415" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F415" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I415" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="416" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B416" s="55" t="s">
+        <v>716</v>
+      </c>
+      <c r="E416" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F416" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I416" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="417" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B417" s="55" t="s">
+        <v>717</v>
+      </c>
+      <c r="E417" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F417" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I417" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="418" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B418" s="55" t="s">
+        <v>718</v>
+      </c>
+      <c r="E418" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F418" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I418" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="419" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B419" s="55" t="s">
+        <v>719</v>
+      </c>
+      <c r="E419" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F419" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I419" s="6" t="s">
         <v>268</v>
       </c>
     </row>
@@ -12071,150 +13091,497 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A271BEB6-EA4F-BF4D-A000-7E236290F5CB}">
-  <dimension ref="H13:H39"/>
+  <dimension ref="F5:BM66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H39"/>
+      <selection activeCell="F7" sqref="F7:F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="8" max="9" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H13" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="14" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H14" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="15" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H15" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="16" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H16" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H17" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H18" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H19" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H20" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H21" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H22" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H23" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H24" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H25" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H26" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H27" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H28" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H29" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H30" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H31" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H32" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H33" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H34" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H35" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H36" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H37" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H38" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H39" t="s">
-        <v>638</v>
+    <row r="5" spans="6:65" x14ac:dyDescent="0.15">
+      <c r="F5" s="55" t="s">
+        <v>660</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>662</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>663</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>664</v>
+      </c>
+      <c r="K5" s="55" t="s">
+        <v>665</v>
+      </c>
+      <c r="L5" s="55" t="s">
+        <v>666</v>
+      </c>
+      <c r="M5" s="55" t="s">
+        <v>667</v>
+      </c>
+      <c r="N5" s="55" t="s">
+        <v>668</v>
+      </c>
+      <c r="O5" s="55" t="s">
+        <v>669</v>
+      </c>
+      <c r="P5" s="55" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q5" s="55" t="s">
+        <v>671</v>
+      </c>
+      <c r="R5" s="55" t="s">
+        <v>672</v>
+      </c>
+      <c r="S5" s="55" t="s">
+        <v>673</v>
+      </c>
+      <c r="T5" s="55" t="s">
+        <v>674</v>
+      </c>
+      <c r="U5" s="55" t="s">
+        <v>675</v>
+      </c>
+      <c r="V5" s="55" t="s">
+        <v>676</v>
+      </c>
+      <c r="W5" s="55" t="s">
+        <v>677</v>
+      </c>
+      <c r="X5" s="55" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y5" s="55" t="s">
+        <v>679</v>
+      </c>
+      <c r="Z5" s="55" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA5" s="55" t="s">
+        <v>681</v>
+      </c>
+      <c r="AB5" s="55" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC5" s="55" t="s">
+        <v>683</v>
+      </c>
+      <c r="AD5" s="55" t="s">
+        <v>684</v>
+      </c>
+      <c r="AE5" s="55" t="s">
+        <v>685</v>
+      </c>
+      <c r="AF5" s="55" t="s">
+        <v>686</v>
+      </c>
+      <c r="AG5" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="AH5" s="55" t="s">
+        <v>688</v>
+      </c>
+      <c r="AI5" s="55" t="s">
+        <v>689</v>
+      </c>
+      <c r="AJ5" s="55" t="s">
+        <v>690</v>
+      </c>
+      <c r="AK5" s="55" t="s">
+        <v>691</v>
+      </c>
+      <c r="AL5" s="55" t="s">
+        <v>692</v>
+      </c>
+      <c r="AM5" s="55" t="s">
+        <v>693</v>
+      </c>
+      <c r="AN5" s="55" t="s">
+        <v>694</v>
+      </c>
+      <c r="AO5" s="55" t="s">
+        <v>695</v>
+      </c>
+      <c r="AP5" s="55" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ5" s="55" t="s">
+        <v>697</v>
+      </c>
+      <c r="AR5" s="55" t="s">
+        <v>698</v>
+      </c>
+      <c r="AS5" s="55" t="s">
+        <v>699</v>
+      </c>
+      <c r="AT5" s="55" t="s">
+        <v>700</v>
+      </c>
+      <c r="AU5" s="55" t="s">
+        <v>701</v>
+      </c>
+      <c r="AV5" s="55" t="s">
+        <v>702</v>
+      </c>
+      <c r="AW5" s="55" t="s">
+        <v>703</v>
+      </c>
+      <c r="AX5" s="55" t="s">
+        <v>704</v>
+      </c>
+      <c r="AY5" s="55" t="s">
+        <v>705</v>
+      </c>
+      <c r="AZ5" s="55" t="s">
+        <v>706</v>
+      </c>
+      <c r="BA5" s="55" t="s">
+        <v>707</v>
+      </c>
+      <c r="BB5" s="55" t="s">
+        <v>708</v>
+      </c>
+      <c r="BC5" s="55" t="s">
+        <v>709</v>
+      </c>
+      <c r="BD5" s="55" t="s">
+        <v>710</v>
+      </c>
+      <c r="BE5" s="55" t="s">
+        <v>711</v>
+      </c>
+      <c r="BF5" s="55" t="s">
+        <v>712</v>
+      </c>
+      <c r="BG5" s="55" t="s">
+        <v>713</v>
+      </c>
+      <c r="BH5" s="55" t="s">
+        <v>714</v>
+      </c>
+      <c r="BI5" s="55" t="s">
+        <v>715</v>
+      </c>
+      <c r="BJ5" s="55" t="s">
+        <v>716</v>
+      </c>
+      <c r="BK5" s="55" t="s">
+        <v>717</v>
+      </c>
+      <c r="BL5" s="55" t="s">
+        <v>718</v>
+      </c>
+      <c r="BM5" s="55" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="7" spans="6:65" x14ac:dyDescent="0.15">
+      <c r="F7" s="55" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="8" spans="6:65" x14ac:dyDescent="0.15">
+      <c r="F8" s="55" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="9" spans="6:65" x14ac:dyDescent="0.15">
+      <c r="F9" s="55" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="10" spans="6:65" x14ac:dyDescent="0.15">
+      <c r="F10" s="55" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="11" spans="6:65" x14ac:dyDescent="0.15">
+      <c r="F11" s="55" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="12" spans="6:65" x14ac:dyDescent="0.15">
+      <c r="F12" s="55" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="13" spans="6:65" x14ac:dyDescent="0.15">
+      <c r="F13" s="55" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="14" spans="6:65" x14ac:dyDescent="0.15">
+      <c r="F14" s="55" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="15" spans="6:65" x14ac:dyDescent="0.15">
+      <c r="F15" s="55" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="16" spans="6:65" x14ac:dyDescent="0.15">
+      <c r="F16" s="55" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F17" s="55" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F18" s="55" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F19" s="55" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F20" s="55" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F21" s="55" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F22" s="55" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F23" s="55" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F24" s="55" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F25" s="55" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F26" s="55" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F27" s="55" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F28" s="55" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F29" s="55" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F30" s="55" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F31" s="55" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F32" s="55" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F33" s="55" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F34" s="55" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F35" s="55" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F36" s="55" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F37" s="55" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F38" s="55" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F39" s="55" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F40" s="55" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F41" s="55" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F42" s="55" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F43" s="55" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F44" s="55" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F45" s="55" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F46" s="55" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F47" s="55" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F48" s="55" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F49" s="55" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F50" s="55" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F51" s="55" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F52" s="55" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F53" s="55" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F54" s="55" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F55" s="55" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F56" s="55" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F57" s="55" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F58" s="55" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F59" s="55" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F60" s="55" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F61" s="55" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F62" s="55" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F63" s="55" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F64" s="55" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F65" s="55" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F66" s="55" t="s">
+        <v>719</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/update_data/data/processed/Data_Dictionary.xlsx
+++ b/Analysis/update_data/data/processed/Data_Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunwenji/Downloads/Covid_SL_intxns/Analysis/update_data/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C17B7F-D025-6240-8703-27A25EC3576E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184AB013-DC8F-4044-A053-838FBEAF042F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19400" yWindow="0" windowWidth="19000" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10040" yWindow="460" windowWidth="19000" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3100" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3100" uniqueCount="925">
   <si>
     <t>Col Num</t>
   </si>
@@ -2507,18 +2507,6 @@
     <t>total_jail_pretrial_rate</t>
   </si>
   <si>
-    <t>black_white_jail_pop_rate</t>
-  </si>
-  <si>
-    <t>aapi_white_jail_pop_rate</t>
-  </si>
-  <si>
-    <t>latinx_white_jail_pop_rate</t>
-  </si>
-  <si>
-    <t>native_white_jail_pop_rate</t>
-  </si>
-  <si>
     <t>white_pop_15to64_ratio</t>
   </si>
   <si>
@@ -3479,39 +3467,12 @@
     <t>Lead Risk Decile</t>
   </si>
   <si>
-    <t>Nitrate.and.nitrite</t>
-  </si>
-  <si>
     <t>Comp 2,4-D</t>
   </si>
   <si>
     <t>Comp 2,4-DB</t>
   </si>
   <si>
-    <t>Trichloroacetic.acid</t>
-  </si>
-  <si>
-    <t>Radiological.contaminants</t>
-  </si>
-  <si>
-    <t>Tetrachloroethylene..perchloroethylene.</t>
-  </si>
-  <si>
-    <t>Dichloroacetic.acid</t>
-  </si>
-  <si>
-    <t>Chromium..hexavalent.</t>
-  </si>
-  <si>
-    <t>Haloacetic.acids..HAA5.</t>
-  </si>
-  <si>
-    <t>Total.trihalomethanes..TTHMs.</t>
-  </si>
-  <si>
-    <t>Perfluorinated.chemicals</t>
-  </si>
-  <si>
     <t>Hispanic White College Ratio</t>
   </si>
   <si>
@@ -3597,6 +3558,18 @@
   </si>
   <si>
     <t>avg_PCE_levels</t>
+  </si>
+  <si>
+    <t>white_black_jail_pop_rate</t>
+  </si>
+  <si>
+    <t>white_aapi_jail_pop_rate</t>
+  </si>
+  <si>
+    <t>white_latinx_jail_pop_rate</t>
+  </si>
+  <si>
+    <t>white_native_jail_pop_rate</t>
   </si>
 </sst>
 </file>
@@ -4302,8 +4275,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="112" workbookViewId="0">
-      <selection activeCell="B281" sqref="B281"/>
+    <sheetView tabSelected="1" topLeftCell="A344" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B385" sqref="B385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.19921875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4325,7 +4298,7 @@
         <v>383</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>1</v>
@@ -4457,7 +4430,7 @@
         <v>178</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>4</v>
@@ -4522,7 +4495,7 @@
         <v>183</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>4</v>
@@ -4554,7 +4527,7 @@
         <v>385</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>4</v>
@@ -4586,7 +4559,7 @@
         <v>187</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>4</v>
@@ -4618,7 +4591,7 @@
         <v>189</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>4</v>
@@ -4650,7 +4623,7 @@
         <v>191</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>4</v>
@@ -4682,7 +4655,7 @@
         <v>193</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>4</v>
@@ -4714,7 +4687,7 @@
         <v>195</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>4</v>
@@ -4746,7 +4719,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>4</v>
@@ -4778,7 +4751,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>4</v>
@@ -4810,7 +4783,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>4</v>
@@ -4842,7 +4815,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>4</v>
@@ -4874,7 +4847,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>4</v>
@@ -4906,7 +4879,7 @@
         <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>4</v>
@@ -4938,7 +4911,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>4</v>
@@ -4970,7 +4943,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>4</v>
@@ -5035,7 +5008,7 @@
         <v>50</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>4</v>
@@ -5067,7 +5040,7 @@
         <v>386</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>4</v>
@@ -5168,7 +5141,7 @@
         <v>387</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>4</v>
@@ -5200,7 +5173,7 @@
         <v>388</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>4</v>
@@ -5232,7 +5205,7 @@
         <v>389</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>4</v>
@@ -5297,7 +5270,7 @@
         <v>390</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>4</v>
@@ -5329,7 +5302,7 @@
         <v>391</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>4</v>
@@ -5359,7 +5332,7 @@
         <v>408</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -5383,7 +5356,7 @@
         <v>392</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>4</v>
@@ -5415,7 +5388,7 @@
         <v>393</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>4</v>
@@ -5450,7 +5423,7 @@
         <v>394</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>4</v>
@@ -5515,7 +5488,7 @@
         <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
@@ -5548,10 +5521,10 @@
         <v>53</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>4</v>
@@ -5583,7 +5556,7 @@
         <v>103</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>4</v>
@@ -5615,7 +5588,7 @@
         <v>105</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>4</v>
@@ -5644,7 +5617,7 @@
         <v>56</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
@@ -5680,7 +5653,7 @@
         <v>108</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>4</v>
@@ -5709,10 +5682,10 @@
         <v>58</v>
       </c>
       <c r="B44" s="55" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>4</v>
@@ -5744,7 +5717,7 @@
         <v>111</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>4</v>
@@ -5776,7 +5749,7 @@
         <v>113</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>4</v>
@@ -5808,7 +5781,7 @@
         <v>115</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>4</v>
@@ -5837,10 +5810,10 @@
         <v>62</v>
       </c>
       <c r="B48" s="55" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>4</v>
@@ -5869,7 +5842,7 @@
         <v>63</v>
       </c>
       <c r="B49" s="55" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="C49" s="55"/>
       <c r="D49" s="2" t="s">
@@ -5905,7 +5878,7 @@
         <v>119</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>4</v>
@@ -5935,10 +5908,10 @@
     <row r="51" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="B51" s="2" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>4</v>
@@ -5968,7 +5941,7 @@
         <v>121</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>4</v>
@@ -5997,10 +5970,10 @@
         <v>66</v>
       </c>
       <c r="B53" s="55" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>4</v>
@@ -6032,7 +6005,7 @@
         <v>124</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>4</v>
@@ -6061,10 +6034,10 @@
         <v>68</v>
       </c>
       <c r="B55" s="55" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>4</v>
@@ -6126,7 +6099,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
@@ -6222,7 +6195,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
@@ -6342,7 +6315,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="55" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="C64" s="55"/>
       <c r="D64" s="4" t="s">
@@ -6372,7 +6345,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>918</v>
+        <v>905</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
@@ -6462,7 +6435,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
@@ -6492,7 +6465,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
@@ -6522,7 +6495,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>921</v>
+        <v>908</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
@@ -6612,7 +6585,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>922</v>
+        <v>909</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
@@ -6732,7 +6705,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
@@ -6762,7 +6735,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
@@ -6852,7 +6825,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
@@ -6882,7 +6855,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
@@ -6915,7 +6888,7 @@
         <v>52</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>4</v>
@@ -6947,7 +6920,7 @@
         <v>395</v>
       </c>
       <c r="C84" s="58" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>4</v>
@@ -6979,7 +6952,7 @@
         <v>396</v>
       </c>
       <c r="C85" s="58" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>4</v>
@@ -7044,7 +7017,7 @@
         <v>403</v>
       </c>
       <c r="C87" s="58" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>4</v>
@@ -7076,7 +7049,7 @@
         <v>398</v>
       </c>
       <c r="C88" s="58" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>4</v>
@@ -7141,7 +7114,7 @@
         <v>397</v>
       </c>
       <c r="C90" s="58" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>4</v>
@@ -7296,7 +7269,7 @@
         <v>219</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>4</v>
@@ -7356,10 +7329,10 @@
         <v>7</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>21</v>
@@ -7386,10 +7359,10 @@
         <v>1</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>4</v>
@@ -7419,7 +7392,7 @@
         <v>409</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>4</v>
@@ -7446,10 +7419,10 @@
         <v>3</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>4</v>
@@ -7479,7 +7452,7 @@
         <v>11</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>4</v>
@@ -7509,7 +7482,7 @@
         <v>13</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>4</v>
@@ -7567,10 +7540,10 @@
     <row r="104" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A104" s="9"/>
       <c r="B104" s="4" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>4</v>
@@ -7593,10 +7566,10 @@
     <row r="105" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A105" s="9"/>
       <c r="B105" s="4" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>4</v>
@@ -7624,7 +7597,7 @@
         <v>55</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>4</v>
@@ -7656,7 +7629,7 @@
         <v>400</v>
       </c>
       <c r="C107" s="58" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>4</v>
@@ -7688,7 +7661,7 @@
         <v>401</v>
       </c>
       <c r="C108" s="58" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>4</v>
@@ -7817,7 +7790,7 @@
         <v>549</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>4</v>
@@ -7847,7 +7820,7 @@
         <v>550</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>4</v>
@@ -7877,7 +7850,7 @@
         <v>551</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>4</v>
@@ -7907,7 +7880,7 @@
         <v>552</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>4</v>
@@ -7937,7 +7910,7 @@
         <v>553</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>4</v>
@@ -7966,10 +7939,10 @@
         <v>130</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>4</v>
@@ -8091,7 +8064,7 @@
         <v>404</v>
       </c>
       <c r="C121" s="58" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>4</v>
@@ -8123,7 +8096,7 @@
         <v>402</v>
       </c>
       <c r="C122" s="58" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>4</v>
@@ -8155,7 +8128,7 @@
         <v>405</v>
       </c>
       <c r="C123" s="58" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>4</v>
@@ -8187,7 +8160,7 @@
         <v>406</v>
       </c>
       <c r="C124" s="58" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>4</v>
@@ -8219,7 +8192,7 @@
         <v>407</v>
       </c>
       <c r="C125" s="58" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>4</v>
@@ -8333,7 +8306,7 @@
         <v>298</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
@@ -8419,7 +8392,7 @@
         <v>304</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="D132" s="28"/>
       <c r="E132" s="28"/>
@@ -8448,7 +8421,7 @@
         <v>305</v>
       </c>
       <c r="C133" s="31" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D133" s="28"/>
       <c r="E133" s="28"/>
@@ -8474,7 +8447,7 @@
         <v>306</v>
       </c>
       <c r="C134" s="31" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D134" s="28"/>
       <c r="E134" s="28"/>
@@ -8500,7 +8473,7 @@
         <v>307</v>
       </c>
       <c r="C135" s="31" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D135" s="28"/>
       <c r="E135" s="28"/>
@@ -8554,7 +8527,7 @@
         <v>313</v>
       </c>
       <c r="C137" s="40" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="D137" s="37"/>
       <c r="E137" s="37"/>
@@ -8583,7 +8556,7 @@
         <v>315</v>
       </c>
       <c r="C138" s="40" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D138" s="37"/>
       <c r="E138" s="37"/>
@@ -8637,7 +8610,7 @@
         <v>318</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="D140" s="23"/>
       <c r="E140" s="23"/>
@@ -8666,7 +8639,7 @@
         <v>321</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D141" s="23"/>
       <c r="E141" s="23"/>
@@ -8719,7 +8692,7 @@
         <v>324</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D143" s="23"/>
       <c r="E143" s="23"/>
@@ -8748,7 +8721,7 @@
         <v>326</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D144" s="23"/>
       <c r="E144" s="23"/>
@@ -8779,7 +8752,7 @@
         <v>201</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>4</v>
@@ -8937,7 +8910,7 @@
         <v>224</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>4</v>
@@ -8972,7 +8945,7 @@
         <v>227</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>4</v>
@@ -9037,7 +9010,7 @@
         <v>411</v>
       </c>
       <c r="C153" s="59" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>4</v>
@@ -9099,7 +9072,7 @@
         <v>198</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>4</v>
@@ -9131,7 +9104,7 @@
         <v>231</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>4</v>
@@ -9216,7 +9189,7 @@
         <v>366</v>
       </c>
       <c r="C159" s="50" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D159" s="49"/>
       <c r="E159" s="49"/>
@@ -9242,7 +9215,7 @@
         <v>367</v>
       </c>
       <c r="C160" s="50" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D160" s="49"/>
       <c r="E160" s="49"/>
@@ -9268,7 +9241,7 @@
         <v>368</v>
       </c>
       <c r="C161" s="50" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D161" s="49"/>
       <c r="E161" s="49"/>
@@ -9294,7 +9267,7 @@
         <v>378</v>
       </c>
       <c r="C162" s="50" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D162" s="49"/>
       <c r="E162" s="49"/>
@@ -9320,7 +9293,7 @@
         <v>379</v>
       </c>
       <c r="C163" s="50" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="D163" s="49"/>
       <c r="E163" s="49"/>
@@ -9346,7 +9319,7 @@
         <v>380</v>
       </c>
       <c r="C164" s="51" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D164" s="49"/>
       <c r="E164" s="49"/>
@@ -9372,7 +9345,7 @@
         <v>381</v>
       </c>
       <c r="C165" s="51" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="D165" s="49"/>
       <c r="E165" s="49"/>
@@ -9398,7 +9371,7 @@
         <v>382</v>
       </c>
       <c r="C166" s="51" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="D166" s="49"/>
       <c r="E166" s="49"/>
@@ -9424,7 +9397,7 @@
         <v>377</v>
       </c>
       <c r="C167" s="51" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D167" s="49"/>
       <c r="E167" s="49"/>
@@ -9450,7 +9423,7 @@
         <v>376</v>
       </c>
       <c r="C168" s="51" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D168" s="49"/>
       <c r="E168" s="49"/>
@@ -9476,7 +9449,7 @@
         <v>375</v>
       </c>
       <c r="C169" s="51" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D169" s="49"/>
       <c r="E169" s="49"/>
@@ -9502,7 +9475,7 @@
         <v>374</v>
       </c>
       <c r="C170" s="51" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="D170" s="49"/>
       <c r="E170" s="49"/>
@@ -9528,7 +9501,7 @@
         <v>373</v>
       </c>
       <c r="C171" s="51" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D171" s="49"/>
       <c r="E171" s="49"/>
@@ -9554,7 +9527,7 @@
         <v>372</v>
       </c>
       <c r="C172" s="51" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D172" s="49"/>
       <c r="E172" s="49"/>
@@ -9580,7 +9553,7 @@
         <v>371</v>
       </c>
       <c r="C173" s="51" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D173" s="49"/>
       <c r="E173" s="49"/>
@@ -9606,7 +9579,7 @@
         <v>370</v>
       </c>
       <c r="C174" s="51" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="D174" s="49"/>
       <c r="E174" s="49"/>
@@ -9632,7 +9605,7 @@
         <v>369</v>
       </c>
       <c r="C175" s="51" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="D175" s="49"/>
       <c r="E175" s="49"/>
@@ -9657,7 +9630,7 @@
         <v>357</v>
       </c>
       <c r="C176" s="52" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="F176" s="52" t="s">
         <v>359</v>
@@ -9683,7 +9656,7 @@
         <v>361</v>
       </c>
       <c r="C177" s="60" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>417</v>
@@ -9715,7 +9688,7 @@
         <v>412</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>417</v>
@@ -9747,7 +9720,7 @@
         <v>410</v>
       </c>
       <c r="C179" s="60" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>417</v>
@@ -9779,7 +9752,7 @@
         <v>415</v>
       </c>
       <c r="C180" s="60" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="D180" s="6" t="s">
         <v>417</v>
@@ -9808,7 +9781,7 @@
         <v>419</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D181" s="6" t="s">
         <v>417</v>
@@ -9834,7 +9807,7 @@
         <v>420</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>417</v>
@@ -9860,7 +9833,7 @@
         <v>421</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>417</v>
@@ -9886,7 +9859,7 @@
         <v>422</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>417</v>
@@ -9912,7 +9885,7 @@
         <v>423</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>417</v>
@@ -9938,7 +9911,7 @@
         <v>424</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>417</v>
@@ -9964,7 +9937,7 @@
         <v>427</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="F187" s="3" t="s">
         <v>251</v>
@@ -9984,7 +9957,7 @@
         <v>428</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F188" s="3" t="s">
         <v>251</v>
@@ -10004,7 +9977,7 @@
         <v>429</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>251</v>
@@ -10024,7 +9997,7 @@
         <v>430</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F190" s="3" t="s">
         <v>251</v>
@@ -10044,7 +10017,7 @@
         <v>431</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>251</v>
@@ -10064,7 +10037,7 @@
         <v>432</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F192" s="3" t="s">
         <v>251</v>
@@ -10504,7 +10477,7 @@
         <v>441</v>
       </c>
       <c r="C214" s="61" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>251</v>
@@ -10844,7 +10817,7 @@
         <v>442</v>
       </c>
       <c r="C231" s="61" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>251</v>
@@ -11821,10 +11794,10 @@
     </row>
     <row r="280" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B280" s="6" t="s">
-        <v>927</v>
+        <v>914</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F280" s="3" t="s">
         <v>251</v>
@@ -11841,10 +11814,10 @@
     </row>
     <row r="281" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B281" s="6" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="F281" s="3" t="s">
         <v>251</v>
@@ -11861,10 +11834,10 @@
     </row>
     <row r="282" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B282" s="6" t="s">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="F282" s="3" t="s">
         <v>251</v>
@@ -11881,10 +11854,10 @@
     </row>
     <row r="283" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B283" s="6" t="s">
-        <v>929</v>
+        <v>916</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F283" s="3" t="s">
         <v>251</v>
@@ -11901,10 +11874,10 @@
     </row>
     <row r="284" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B284" s="6" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="F284" s="3" t="s">
         <v>251</v>
@@ -11921,10 +11894,10 @@
     </row>
     <row r="285" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B285" s="6" t="s">
-        <v>931</v>
+        <v>918</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F285" s="3" t="s">
         <v>251</v>
@@ -11941,10 +11914,10 @@
     </row>
     <row r="286" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B286" s="6" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="F286" s="3" t="s">
         <v>251</v>
@@ -11964,7 +11937,7 @@
         <v>526</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F287" s="3" t="s">
         <v>251</v>
@@ -11984,7 +11957,7 @@
         <v>530</v>
       </c>
       <c r="C288" s="61" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F288" s="6" t="s">
         <v>80</v>
@@ -12001,7 +11974,7 @@
         <v>532</v>
       </c>
       <c r="C289" s="61" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F289" s="6" t="s">
         <v>80</v>
@@ -12018,7 +11991,7 @@
         <v>534</v>
       </c>
       <c r="C290" s="61" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F290" s="6" t="s">
         <v>80</v>
@@ -12035,7 +12008,7 @@
         <v>536</v>
       </c>
       <c r="C291" s="61" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="F291" s="6" t="s">
         <v>80</v>
@@ -12052,7 +12025,7 @@
         <v>538</v>
       </c>
       <c r="C292" s="61" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F292" s="6" t="s">
         <v>80</v>
@@ -12069,7 +12042,7 @@
         <v>540</v>
       </c>
       <c r="C293" s="61" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="F293" s="6" t="s">
         <v>80</v>
@@ -12086,7 +12059,7 @@
         <v>542</v>
       </c>
       <c r="C294" s="61" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="F294" s="6" t="s">
         <v>80</v>
@@ -12103,7 +12076,7 @@
         <v>544</v>
       </c>
       <c r="C295" s="61" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F295" s="6" t="s">
         <v>80</v>
@@ -12120,7 +12093,7 @@
         <v>546</v>
       </c>
       <c r="C296" s="61" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="F296" s="6" t="s">
         <v>80</v>
@@ -12137,13 +12110,13 @@
         <v>561</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="F297" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G297" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J297" s="6" t="s">
         <v>255</v>
@@ -12154,13 +12127,13 @@
         <v>562</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="F298" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G298" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J298" s="6" t="s">
         <v>255</v>
@@ -12171,13 +12144,13 @@
         <v>563</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F299" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G299" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J299" s="6" t="s">
         <v>255</v>
@@ -12188,13 +12161,13 @@
         <v>564</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F300" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G300" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J300" s="6" t="s">
         <v>255</v>
@@ -12205,13 +12178,13 @@
         <v>565</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="F301" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G301" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J301" s="6" t="s">
         <v>255</v>
@@ -12222,13 +12195,13 @@
         <v>566</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="F302" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G302" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J302" s="6" t="s">
         <v>255</v>
@@ -12239,13 +12212,13 @@
         <v>567</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="F303" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G303" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J303" s="6" t="s">
         <v>255</v>
@@ -12256,13 +12229,13 @@
         <v>568</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="F304" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G304" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J304" s="6" t="s">
         <v>255</v>
@@ -12273,13 +12246,13 @@
         <v>569</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="F305" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G305" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J305" s="6" t="s">
         <v>255</v>
@@ -12287,16 +12260,16 @@
     </row>
     <row r="306" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B306" s="6" t="s">
-        <v>570</v>
+        <v>921</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="F306" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G306" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J306" s="6" t="s">
         <v>255</v>
@@ -12304,16 +12277,16 @@
     </row>
     <row r="307" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B307" s="6" t="s">
-        <v>571</v>
+        <v>922</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="F307" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G307" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J307" s="6" t="s">
         <v>255</v>
@@ -12321,16 +12294,16 @@
     </row>
     <row r="308" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B308" s="6" t="s">
-        <v>572</v>
+        <v>923</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="F308" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G308" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J308" s="6" t="s">
         <v>255</v>
@@ -12338,16 +12311,16 @@
     </row>
     <row r="309" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B309" s="6" t="s">
-        <v>573</v>
+        <v>924</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="F309" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G309" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J309" s="6" t="s">
         <v>255</v>
@@ -12355,16 +12328,16 @@
     </row>
     <row r="310" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B310" s="6" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="F310" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G310" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J310" s="6" t="s">
         <v>255</v>
@@ -12372,19 +12345,19 @@
     </row>
     <row r="311" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A311" s="6" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F311" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G311" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J311" s="6" t="s">
         <v>255</v>
@@ -12392,16 +12365,16 @@
     </row>
     <row r="312" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B312" s="6" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="F312" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G312" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J312" s="6" t="s">
         <v>255</v>
@@ -12409,16 +12382,16 @@
     </row>
     <row r="313" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B313" s="6" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="F313" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G313" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J313" s="6" t="s">
         <v>255</v>
@@ -12426,16 +12399,16 @@
     </row>
     <row r="314" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B314" s="6" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="F314" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G314" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J314" s="6" t="s">
         <v>255</v>
@@ -12443,16 +12416,16 @@
     </row>
     <row r="315" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B315" s="6" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F315" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G315" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J315" s="6" t="s">
         <v>255</v>
@@ -12460,16 +12433,16 @@
     </row>
     <row r="316" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B316" s="6" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F316" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G316" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J316" s="6" t="s">
         <v>255</v>
@@ -12477,16 +12450,16 @@
     </row>
     <row r="317" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B317" s="6" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="F317" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G317" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J317" s="6" t="s">
         <v>255</v>
@@ -12494,16 +12467,16 @@
     </row>
     <row r="318" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B318" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C318" s="61" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="F318" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G318" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J318" s="6" t="s">
         <v>255</v>
@@ -12511,16 +12484,16 @@
     </row>
     <row r="319" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B319" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C319" s="61" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="F319" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G319" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J319" s="6" t="s">
         <v>255</v>
@@ -12528,16 +12501,16 @@
     </row>
     <row r="320" spans="1:10" ht="16" x14ac:dyDescent="0.15">
       <c r="B320" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C320" s="62" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="F320" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G320" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J320" s="6" t="s">
         <v>255</v>
@@ -12545,16 +12518,16 @@
     </row>
     <row r="321" spans="2:10" ht="16" x14ac:dyDescent="0.15">
       <c r="B321" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C321" s="62" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="F321" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G321" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J321" s="6" t="s">
         <v>255</v>
@@ -12562,16 +12535,16 @@
     </row>
     <row r="322" spans="2:10" ht="16" x14ac:dyDescent="0.15">
       <c r="B322" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C322" s="62" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F322" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G322" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J322" s="6" t="s">
         <v>255</v>
@@ -12579,16 +12552,16 @@
     </row>
     <row r="323" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B323" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C323" s="61" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="F323" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G323" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J323" s="6" t="s">
         <v>255</v>
@@ -12596,16 +12569,16 @@
     </row>
     <row r="324" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B324" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C324" s="61" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="F324" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G324" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J324" s="6" t="s">
         <v>255</v>
@@ -12613,16 +12586,16 @@
     </row>
     <row r="325" spans="2:10" ht="16" x14ac:dyDescent="0.15">
       <c r="B325" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C325" s="62" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="F325" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G325" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J325" s="6" t="s">
         <v>255</v>
@@ -12630,16 +12603,16 @@
     </row>
     <row r="326" spans="2:10" ht="16" x14ac:dyDescent="0.15">
       <c r="B326" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C326" s="62" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="F326" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G326" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J326" s="6" t="s">
         <v>255</v>
@@ -12647,16 +12620,16 @@
     </row>
     <row r="327" spans="2:10" ht="16" x14ac:dyDescent="0.15">
       <c r="B327" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C327" s="62" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="F327" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G327" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J327" s="6" t="s">
         <v>255</v>
@@ -12664,16 +12637,16 @@
     </row>
     <row r="328" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B328" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C328" s="61" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="F328" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G328" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J328" s="6" t="s">
         <v>255</v>
@@ -12681,16 +12654,16 @@
     </row>
     <row r="329" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B329" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C329" s="61" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="F329" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G329" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J329" s="6" t="s">
         <v>255</v>
@@ -12698,16 +12671,16 @@
     </row>
     <row r="330" spans="2:10" ht="16" x14ac:dyDescent="0.15">
       <c r="B330" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C330" s="62" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="F330" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G330" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J330" s="6" t="s">
         <v>255</v>
@@ -12715,16 +12688,16 @@
     </row>
     <row r="331" spans="2:10" ht="16" x14ac:dyDescent="0.15">
       <c r="B331" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C331" s="62" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="F331" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G331" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J331" s="6" t="s">
         <v>255</v>
@@ -12732,16 +12705,16 @@
     </row>
     <row r="332" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B332" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C332" s="61" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="F332" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G332" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J332" s="6" t="s">
         <v>255</v>
@@ -12749,16 +12722,16 @@
     </row>
     <row r="333" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B333" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C333" s="61" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="F333" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G333" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J333" s="6" t="s">
         <v>255</v>
@@ -12766,24 +12739,24 @@
     </row>
     <row r="334" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B334" s="61" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C334" s="61" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="335" spans="2:10" ht="16" x14ac:dyDescent="0.15">
       <c r="B335" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C335" s="62" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F335" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G335" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J335" s="6" t="s">
         <v>255</v>
@@ -12791,16 +12764,16 @@
     </row>
     <row r="336" spans="2:10" ht="16" x14ac:dyDescent="0.15">
       <c r="B336" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C336" s="62" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="F336" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G336" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J336" s="6" t="s">
         <v>255</v>
@@ -12808,16 +12781,16 @@
     </row>
     <row r="337" spans="2:10" ht="16" x14ac:dyDescent="0.15">
       <c r="B337" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C337" s="62" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F337" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G337" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J337" s="6" t="s">
         <v>255</v>
@@ -12825,16 +12798,16 @@
     </row>
     <row r="338" spans="2:10" ht="16" x14ac:dyDescent="0.15">
       <c r="B338" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C338" s="62" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="F338" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G338" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J338" s="6" t="s">
         <v>255</v>
@@ -12842,16 +12815,16 @@
     </row>
     <row r="339" spans="2:10" ht="16" x14ac:dyDescent="0.15">
       <c r="B339" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C339" s="62" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="F339" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G339" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J339" s="6" t="s">
         <v>255</v>
@@ -12859,16 +12832,16 @@
     </row>
     <row r="340" spans="2:10" ht="16" x14ac:dyDescent="0.15">
       <c r="B340" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C340" s="62" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="F340" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G340" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J340" s="6" t="s">
         <v>255</v>
@@ -12876,16 +12849,16 @@
     </row>
     <row r="341" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B341" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C341" s="61" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="F341" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J341" s="6" t="s">
         <v>255</v>
@@ -12893,16 +12866,16 @@
     </row>
     <row r="342" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B342" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C342" s="61" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="F342" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J342" s="6" t="s">
         <v>255</v>
@@ -12910,16 +12883,16 @@
     </row>
     <row r="343" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B343" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C343" s="61" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="F343" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J343" s="6" t="s">
         <v>255</v>
@@ -12927,16 +12900,16 @@
     </row>
     <row r="344" spans="2:10" ht="16" x14ac:dyDescent="0.15">
       <c r="B344" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C344" s="62" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="F344" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J344" s="6" t="s">
         <v>255</v>
@@ -12944,10 +12917,10 @@
     </row>
     <row r="345" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B345" s="6" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="F345" s="6" t="s">
         <v>80</v>
@@ -12961,10 +12934,10 @@
     </row>
     <row r="346" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B346" s="6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="F346" s="6" t="s">
         <v>80</v>
@@ -12978,10 +12951,10 @@
     </row>
     <row r="347" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B347" s="6" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="F347" s="6" t="s">
         <v>80</v>
@@ -12995,10 +12968,10 @@
     </row>
     <row r="348" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B348" s="6" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="F348" s="6" t="s">
         <v>80</v>
@@ -13012,10 +12985,10 @@
     </row>
     <row r="349" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B349" s="6" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="F349" s="6" t="s">
         <v>80</v>
@@ -13029,10 +13002,10 @@
     </row>
     <row r="350" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B350" s="6" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="F350" s="6" t="s">
         <v>80</v>
@@ -13046,10 +13019,10 @@
     </row>
     <row r="351" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B351" s="6" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="F351" s="6" t="s">
         <v>80</v>
@@ -13063,10 +13036,10 @@
     </row>
     <row r="352" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B352" s="6" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="F352" s="6" t="s">
         <v>80</v>
@@ -13080,10 +13053,10 @@
     </row>
     <row r="353" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B353" s="6" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="F353" s="6" t="s">
         <v>80</v>
@@ -13097,10 +13070,10 @@
     </row>
     <row r="354" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B354" s="6" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="F354" s="6" t="s">
         <v>80</v>
@@ -13114,10 +13087,10 @@
     </row>
     <row r="355" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B355" s="6" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="F355" s="6" t="s">
         <v>80</v>
@@ -13131,10 +13104,10 @@
     </row>
     <row r="356" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B356" s="6" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F356" s="6" t="s">
         <v>80</v>
@@ -13148,10 +13121,10 @@
     </row>
     <row r="357" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B357" s="6" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="F357" s="6" t="s">
         <v>80</v>
@@ -13165,10 +13138,10 @@
     </row>
     <row r="358" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B358" s="6" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="F358" s="6" t="s">
         <v>80</v>
@@ -13182,10 +13155,10 @@
     </row>
     <row r="359" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B359" s="6" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="F359" s="6" t="s">
         <v>80</v>
@@ -13199,16 +13172,16 @@
     </row>
     <row r="360" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B360" s="55" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C360" s="55" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F360" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G360" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J360" s="6" t="s">
         <v>255</v>
@@ -13216,16 +13189,16 @@
     </row>
     <row r="361" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B361" s="63" t="s">
-        <v>901</v>
+        <v>629</v>
       </c>
       <c r="C361" s="55" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F361" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G361" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J361" s="6" t="s">
         <v>255</v>
@@ -13233,16 +13206,16 @@
     </row>
     <row r="362" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B362" s="63" t="s">
-        <v>904</v>
+        <v>630</v>
       </c>
       <c r="C362" s="55" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="F362" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G362" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J362" s="6" t="s">
         <v>255</v>
@@ -13250,16 +13223,16 @@
     </row>
     <row r="363" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B363" s="63" t="s">
-        <v>903</v>
+        <v>631</v>
       </c>
       <c r="C363" s="55" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F363" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G363" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J363" s="6" t="s">
         <v>255</v>
@@ -13267,16 +13240,16 @@
     </row>
     <row r="364" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B364" s="55" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C364" s="55" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="F364" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J364" s="6" t="s">
         <v>255</v>
@@ -13284,16 +13257,16 @@
     </row>
     <row r="365" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B365" s="55" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C365" s="55" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F365" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G365" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J365" s="6" t="s">
         <v>255</v>
@@ -13301,16 +13274,16 @@
     </row>
     <row r="366" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B366" s="55" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C366" s="55" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="F366" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J366" s="6" t="s">
         <v>255</v>
@@ -13318,16 +13291,16 @@
     </row>
     <row r="367" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B367" s="63" t="s">
-        <v>900</v>
+        <v>635</v>
       </c>
       <c r="C367" s="55" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F367" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G367" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J367" s="6" t="s">
         <v>255</v>
@@ -13335,16 +13308,16 @@
     </row>
     <row r="368" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B368" s="63" t="s">
-        <v>897</v>
+        <v>636</v>
       </c>
       <c r="C368" s="55" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F368" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G368" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J368" s="6" t="s">
         <v>255</v>
@@ -13352,16 +13325,16 @@
     </row>
     <row r="369" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B369" s="63" t="s">
-        <v>898</v>
+        <v>637</v>
       </c>
       <c r="C369" s="55" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F369" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G369" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J369" s="6" t="s">
         <v>255</v>
@@ -13369,16 +13342,16 @@
     </row>
     <row r="370" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B370" s="55" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C370" s="55" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F370" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G370" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J370" s="6" t="s">
         <v>255</v>
@@ -13386,16 +13359,16 @@
     </row>
     <row r="371" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B371" s="55" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C371" s="55" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F371" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G371" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J371" s="6" t="s">
         <v>255</v>
@@ -13403,16 +13376,16 @@
     </row>
     <row r="372" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B372" s="63" t="s">
-        <v>899</v>
+        <v>640</v>
       </c>
       <c r="C372" s="55" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F372" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G372" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J372" s="6" t="s">
         <v>255</v>
@@ -13420,16 +13393,16 @@
     </row>
     <row r="373" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B373" s="63" t="s">
-        <v>902</v>
+        <v>641</v>
       </c>
       <c r="C373" s="55" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F373" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G373" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J373" s="6" t="s">
         <v>255</v>
@@ -13437,16 +13410,16 @@
     </row>
     <row r="374" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B374" s="55" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C374" s="55" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F374" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G374" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J374" s="6" t="s">
         <v>255</v>
@@ -13454,16 +13427,16 @@
     </row>
     <row r="375" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B375" s="55" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C375" s="55" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F375" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G375" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J375" s="6" t="s">
         <v>255</v>
@@ -13471,16 +13444,16 @@
     </row>
     <row r="376" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B376" s="55" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C376" s="55" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="F376" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G376" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J376" s="6" t="s">
         <v>255</v>
@@ -13488,16 +13461,16 @@
     </row>
     <row r="377" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B377" s="55" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C377" s="55" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F377" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G377" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J377" s="6" t="s">
         <v>255</v>
@@ -13505,16 +13478,16 @@
     </row>
     <row r="378" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B378" s="55" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C378" s="55" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="F378" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G378" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J378" s="6" t="s">
         <v>255</v>
@@ -13522,16 +13495,16 @@
     </row>
     <row r="379" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B379" s="55" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C379" s="55" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F379" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G379" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J379" s="6" t="s">
         <v>255</v>
@@ -13539,16 +13512,16 @@
     </row>
     <row r="380" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B380" s="55" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C380" s="55" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="F380" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G380" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J380" s="6" t="s">
         <v>255</v>
@@ -13556,16 +13529,16 @@
     </row>
     <row r="381" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B381" s="55" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C381" s="55" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F381" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G381" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J381" s="6" t="s">
         <v>255</v>
@@ -13573,16 +13546,16 @@
     </row>
     <row r="382" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B382" s="55" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C382" s="55" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F382" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G382" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J382" s="6" t="s">
         <v>255</v>
@@ -13590,16 +13563,16 @@
     </row>
     <row r="383" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B383" s="55" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C383" s="55" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F383" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G383" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J383" s="6" t="s">
         <v>255</v>
@@ -13607,16 +13580,16 @@
     </row>
     <row r="384" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B384" s="55" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C384" s="55" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="F384" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G384" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J384" s="6" t="s">
         <v>255</v>
@@ -13624,16 +13597,16 @@
     </row>
     <row r="385" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B385" s="63" t="s">
-        <v>894</v>
+        <v>653</v>
       </c>
       <c r="C385" s="55" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F385" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G385" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J385" s="6" t="s">
         <v>255</v>
@@ -13641,16 +13614,16 @@
     </row>
     <row r="386" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B386" s="55" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C386" s="55" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="F386" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G386" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J386" s="6" t="s">
         <v>255</v>
@@ -13658,16 +13631,16 @@
     </row>
     <row r="387" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B387" s="55" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C387" s="55" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F387" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G387" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J387" s="6" t="s">
         <v>255</v>
@@ -13675,16 +13648,16 @@
     </row>
     <row r="388" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B388" s="55" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C388" s="55" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="F388" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G388" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J388" s="6" t="s">
         <v>255</v>
@@ -13692,16 +13665,16 @@
     </row>
     <row r="389" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B389" s="55" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C389" s="55" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F389" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G389" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J389" s="6" t="s">
         <v>255</v>
@@ -13709,16 +13682,16 @@
     </row>
     <row r="390" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B390" s="55" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C390" s="55" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F390" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G390" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J390" s="6" t="s">
         <v>255</v>
@@ -13726,16 +13699,16 @@
     </row>
     <row r="391" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B391" s="55" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C391" s="55" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F391" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G391" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J391" s="6" t="s">
         <v>255</v>
@@ -13743,16 +13716,16 @@
     </row>
     <row r="392" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B392" s="55" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C392" s="55" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="F392" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G392" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J392" s="6" t="s">
         <v>255</v>
@@ -13760,16 +13733,16 @@
     </row>
     <row r="393" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B393" s="55" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C393" s="55" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F393" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G393" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J393" s="6" t="s">
         <v>255</v>
@@ -13777,16 +13750,16 @@
     </row>
     <row r="394" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B394" s="55" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C394" s="55" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F394" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G394" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J394" s="6" t="s">
         <v>255</v>
@@ -13794,16 +13767,16 @@
     </row>
     <row r="395" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B395" s="55" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C395" s="55" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F395" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G395" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J395" s="6" t="s">
         <v>255</v>
@@ -13811,16 +13784,16 @@
     </row>
     <row r="396" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B396" s="55" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C396" s="55" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F396" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G396" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J396" s="6" t="s">
         <v>255</v>
@@ -13828,16 +13801,16 @@
     </row>
     <row r="397" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B397" s="55" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C397" s="55" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F397" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G397" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J397" s="6" t="s">
         <v>255</v>
@@ -13845,16 +13818,16 @@
     </row>
     <row r="398" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B398" s="55" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C398" s="55" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="F398" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G398" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J398" s="6" t="s">
         <v>255</v>
@@ -13862,16 +13835,16 @@
     </row>
     <row r="399" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B399" s="55" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C399" s="55" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F399" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G399" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J399" s="6" t="s">
         <v>255</v>
@@ -13879,16 +13852,16 @@
     </row>
     <row r="400" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B400" s="55" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C400" s="55" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F400" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G400" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J400" s="6" t="s">
         <v>255</v>
@@ -13896,16 +13869,16 @@
     </row>
     <row r="401" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B401" s="55" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C401" s="55" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F401" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G401" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J401" s="6" t="s">
         <v>255</v>
@@ -13913,16 +13886,16 @@
     </row>
     <row r="402" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B402" s="55" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C402" s="55" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F402" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G402" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J402" s="6" t="s">
         <v>255</v>
@@ -13930,16 +13903,16 @@
     </row>
     <row r="403" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B403" s="55" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C403" s="55" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F403" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G403" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J403" s="6" t="s">
         <v>255</v>
@@ -13947,16 +13920,16 @@
     </row>
     <row r="404" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B404" s="55" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C404" s="55" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="F404" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G404" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J404" s="6" t="s">
         <v>255</v>
@@ -13964,16 +13937,16 @@
     </row>
     <row r="405" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B405" s="55" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C405" s="55" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F405" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G405" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J405" s="6" t="s">
         <v>255</v>
@@ -13981,16 +13954,16 @@
     </row>
     <row r="406" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B406" s="55" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C406" s="55" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="F406" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G406" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J406" s="6" t="s">
         <v>255</v>
@@ -13998,16 +13971,16 @@
     </row>
     <row r="407" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B407" s="55" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C407" s="55" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F407" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G407" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J407" s="6" t="s">
         <v>255</v>
@@ -14015,16 +13988,16 @@
     </row>
     <row r="408" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B408" s="55" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C408" s="55" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F408" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G408" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J408" s="6" t="s">
         <v>255</v>
@@ -14032,16 +14005,16 @@
     </row>
     <row r="409" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B409" s="55" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C409" s="55" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F409" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G409" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J409" s="6" t="s">
         <v>255</v>
@@ -14049,16 +14022,16 @@
     </row>
     <row r="410" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B410" s="55" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C410" s="55" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F410" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G410" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J410" s="6" t="s">
         <v>255</v>
@@ -14066,16 +14039,16 @@
     </row>
     <row r="411" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B411" s="55" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C411" s="55" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F411" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G411" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J411" s="6" t="s">
         <v>255</v>
@@ -14083,16 +14056,16 @@
     </row>
     <row r="412" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B412" s="55" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C412" s="55" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F412" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G412" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J412" s="6" t="s">
         <v>255</v>
@@ -14100,16 +14073,16 @@
     </row>
     <row r="413" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B413" s="55" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C413" s="55" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F413" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G413" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J413" s="6" t="s">
         <v>255</v>
@@ -14117,16 +14090,16 @@
     </row>
     <row r="414" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B414" s="55" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C414" s="55" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F414" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G414" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J414" s="6" t="s">
         <v>255</v>
@@ -14134,16 +14107,16 @@
     </row>
     <row r="415" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B415" s="55" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C415" s="55" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F415" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G415" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J415" s="6" t="s">
         <v>255</v>
@@ -14151,16 +14124,16 @@
     </row>
     <row r="416" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B416" s="55" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C416" s="55" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="F416" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G416" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J416" s="6" t="s">
         <v>255</v>
@@ -14168,16 +14141,16 @@
     </row>
     <row r="417" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B417" s="55" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C417" s="55" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F417" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G417" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J417" s="6" t="s">
         <v>255</v>
@@ -14185,16 +14158,16 @@
     </row>
     <row r="418" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B418" s="55" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C418" s="55" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F418" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G418" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J418" s="6" t="s">
         <v>255</v>
@@ -14202,16 +14175,16 @@
     </row>
     <row r="419" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B419" s="55" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C419" s="55" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F419" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G419" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="J419" s="6" t="s">
         <v>255</v>
@@ -14906,484 +14879,484 @@
   <sheetData>
     <row r="5" spans="6:65" x14ac:dyDescent="0.15">
       <c r="F5" s="55" t="s">
+        <v>628</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>629</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>630</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>631</v>
+      </c>
+      <c r="J5" s="55" t="s">
         <v>632</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="K5" s="55" t="s">
         <v>633</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="L5" s="55" t="s">
         <v>634</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="M5" s="55" t="s">
         <v>635</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="N5" s="55" t="s">
         <v>636</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="O5" s="55" t="s">
         <v>637</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="P5" s="55" t="s">
         <v>638</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="Q5" s="55" t="s">
         <v>639</v>
       </c>
-      <c r="N5" s="55" t="s">
+      <c r="R5" s="55" t="s">
         <v>640</v>
       </c>
-      <c r="O5" s="55" t="s">
+      <c r="S5" s="55" t="s">
         <v>641</v>
       </c>
-      <c r="P5" s="55" t="s">
+      <c r="T5" s="55" t="s">
         <v>642</v>
       </c>
-      <c r="Q5" s="55" t="s">
+      <c r="U5" s="55" t="s">
         <v>643</v>
       </c>
-      <c r="R5" s="55" t="s">
+      <c r="V5" s="55" t="s">
         <v>644</v>
       </c>
-      <c r="S5" s="55" t="s">
+      <c r="W5" s="55" t="s">
         <v>645</v>
       </c>
-      <c r="T5" s="55" t="s">
+      <c r="X5" s="55" t="s">
         <v>646</v>
       </c>
-      <c r="U5" s="55" t="s">
+      <c r="Y5" s="55" t="s">
         <v>647</v>
       </c>
-      <c r="V5" s="55" t="s">
+      <c r="Z5" s="55" t="s">
         <v>648</v>
       </c>
-      <c r="W5" s="55" t="s">
+      <c r="AA5" s="55" t="s">
         <v>649</v>
       </c>
-      <c r="X5" s="55" t="s">
+      <c r="AB5" s="55" t="s">
         <v>650</v>
       </c>
-      <c r="Y5" s="55" t="s">
+      <c r="AC5" s="55" t="s">
         <v>651</v>
       </c>
-      <c r="Z5" s="55" t="s">
+      <c r="AD5" s="55" t="s">
         <v>652</v>
       </c>
-      <c r="AA5" s="55" t="s">
+      <c r="AE5" s="55" t="s">
         <v>653</v>
       </c>
-      <c r="AB5" s="55" t="s">
+      <c r="AF5" s="55" t="s">
         <v>654</v>
       </c>
-      <c r="AC5" s="55" t="s">
+      <c r="AG5" s="55" t="s">
         <v>655</v>
       </c>
-      <c r="AD5" s="55" t="s">
+      <c r="AH5" s="55" t="s">
         <v>656</v>
       </c>
-      <c r="AE5" s="55" t="s">
+      <c r="AI5" s="55" t="s">
         <v>657</v>
       </c>
-      <c r="AF5" s="55" t="s">
+      <c r="AJ5" s="55" t="s">
         <v>658</v>
       </c>
-      <c r="AG5" s="55" t="s">
+      <c r="AK5" s="55" t="s">
         <v>659</v>
       </c>
-      <c r="AH5" s="55" t="s">
+      <c r="AL5" s="55" t="s">
         <v>660</v>
       </c>
-      <c r="AI5" s="55" t="s">
+      <c r="AM5" s="55" t="s">
         <v>661</v>
       </c>
-      <c r="AJ5" s="55" t="s">
+      <c r="AN5" s="55" t="s">
         <v>662</v>
       </c>
-      <c r="AK5" s="55" t="s">
+      <c r="AO5" s="55" t="s">
         <v>663</v>
       </c>
-      <c r="AL5" s="55" t="s">
+      <c r="AP5" s="55" t="s">
         <v>664</v>
       </c>
-      <c r="AM5" s="55" t="s">
+      <c r="AQ5" s="55" t="s">
         <v>665</v>
       </c>
-      <c r="AN5" s="55" t="s">
+      <c r="AR5" s="55" t="s">
         <v>666</v>
       </c>
-      <c r="AO5" s="55" t="s">
+      <c r="AS5" s="55" t="s">
         <v>667</v>
       </c>
-      <c r="AP5" s="55" t="s">
+      <c r="AT5" s="55" t="s">
         <v>668</v>
       </c>
-      <c r="AQ5" s="55" t="s">
+      <c r="AU5" s="55" t="s">
         <v>669</v>
       </c>
-      <c r="AR5" s="55" t="s">
+      <c r="AV5" s="55" t="s">
         <v>670</v>
       </c>
-      <c r="AS5" s="55" t="s">
+      <c r="AW5" s="55" t="s">
         <v>671</v>
       </c>
-      <c r="AT5" s="55" t="s">
+      <c r="AX5" s="55" t="s">
         <v>672</v>
       </c>
-      <c r="AU5" s="55" t="s">
+      <c r="AY5" s="55" t="s">
         <v>673</v>
       </c>
-      <c r="AV5" s="55" t="s">
+      <c r="AZ5" s="55" t="s">
         <v>674</v>
       </c>
-      <c r="AW5" s="55" t="s">
+      <c r="BA5" s="55" t="s">
         <v>675</v>
       </c>
-      <c r="AX5" s="55" t="s">
+      <c r="BB5" s="55" t="s">
         <v>676</v>
       </c>
-      <c r="AY5" s="55" t="s">
+      <c r="BC5" s="55" t="s">
         <v>677</v>
       </c>
-      <c r="AZ5" s="55" t="s">
+      <c r="BD5" s="55" t="s">
         <v>678</v>
       </c>
-      <c r="BA5" s="55" t="s">
+      <c r="BE5" s="55" t="s">
         <v>679</v>
       </c>
-      <c r="BB5" s="55" t="s">
+      <c r="BF5" s="55" t="s">
         <v>680</v>
       </c>
-      <c r="BC5" s="55" t="s">
+      <c r="BG5" s="55" t="s">
         <v>681</v>
       </c>
-      <c r="BD5" s="55" t="s">
+      <c r="BH5" s="55" t="s">
         <v>682</v>
       </c>
-      <c r="BE5" s="55" t="s">
+      <c r="BI5" s="55" t="s">
         <v>683</v>
       </c>
-      <c r="BF5" s="55" t="s">
+      <c r="BJ5" s="55" t="s">
         <v>684</v>
       </c>
-      <c r="BG5" s="55" t="s">
+      <c r="BK5" s="55" t="s">
         <v>685</v>
       </c>
-      <c r="BH5" s="55" t="s">
+      <c r="BL5" s="55" t="s">
         <v>686</v>
       </c>
-      <c r="BI5" s="55" t="s">
+      <c r="BM5" s="55" t="s">
         <v>687</v>
-      </c>
-      <c r="BJ5" s="55" t="s">
-        <v>688</v>
-      </c>
-      <c r="BK5" s="55" t="s">
-        <v>689</v>
-      </c>
-      <c r="BL5" s="55" t="s">
-        <v>690</v>
-      </c>
-      <c r="BM5" s="55" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="7" spans="6:65" x14ac:dyDescent="0.15">
       <c r="F7" s="55" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="8" spans="6:65" x14ac:dyDescent="0.15">
       <c r="F8" s="55" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="9" spans="6:65" x14ac:dyDescent="0.15">
       <c r="F9" s="55" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="10" spans="6:65" x14ac:dyDescent="0.15">
       <c r="F10" s="55" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="11" spans="6:65" x14ac:dyDescent="0.15">
       <c r="F11" s="55" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="12" spans="6:65" x14ac:dyDescent="0.15">
       <c r="F12" s="55" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="13" spans="6:65" x14ac:dyDescent="0.15">
       <c r="F13" s="55" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="14" spans="6:65" x14ac:dyDescent="0.15">
       <c r="F14" s="55" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="6:65" x14ac:dyDescent="0.15">
       <c r="F15" s="55" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="16" spans="6:65" x14ac:dyDescent="0.15">
       <c r="F16" s="55" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F17" s="55" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F18" s="55" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F19" s="55" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F20" s="55" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F21" s="55" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F22" s="55" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F23" s="55" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F24" s="55" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F25" s="55" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F26" s="55" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F27" s="55" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F28" s="55" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F29" s="55" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="30" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F30" s="55" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="31" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F31" s="55" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="32" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F32" s="55" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F33" s="55" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F34" s="55" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F35" s="55" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F36" s="55" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="37" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F37" s="55" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="38" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F38" s="55" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="39" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F39" s="55" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="40" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F40" s="55" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="41" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F41" s="55" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="42" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F42" s="55" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="43" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F43" s="55" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="44" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F44" s="55" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="45" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F45" s="55" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="46" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F46" s="55" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="47" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F47" s="55" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="48" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F48" s="55" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F49" s="55" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F50" s="55" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F51" s="55" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F52" s="55" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F53" s="55" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F54" s="55" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F55" s="55" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F56" s="55" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F57" s="55" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="58" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F58" s="55" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F59" s="55" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="60" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F60" s="55" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="61" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F61" s="55" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="62" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F62" s="55" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="63" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F63" s="55" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="64" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F64" s="55" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F65" s="55" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F66" s="55" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
